--- a/model_exports/labels/2.0_True_False_6_3.xlsx
+++ b/model_exports/labels/2.0_True_False_6_3.xlsx
@@ -453,50 +453,50 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>t-1033470726521544704</t>
+          <t>t-675691648802795522</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>t-508961106849574912</t>
+          <t>t-729342722264420352</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>t-509046359354511360</t>
+          <t>t-500035862709948417</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>t-509083951655174144</t>
+          <t>t-500685725482770433</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -505,11 +505,11 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>t-509100730960314368</t>
+          <t>t-501752547083059200</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -518,7 +518,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>t-509131102796414976</t>
+          <t>t-508961106849574912</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -531,7 +531,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>t-509142523403862017</t>
+          <t>t-509046359354511360</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -544,7 +544,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>t-509208349511262208</t>
+          <t>t-509083951655174144</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -557,50 +557,50 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>t-509223264921878528</t>
+          <t>t-509100730960314368</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>t-509224131880300544</t>
+          <t>t-509131102796414976</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>t-577847446270832640</t>
+          <t>t-509142523403862017</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>t-629748063494537216</t>
+          <t>t-509208349511262208</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -609,7 +609,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>t-629757802915848193</t>
+          <t>t-509223264921878528</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -622,11 +622,11 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>t-1032695855143370753</t>
+          <t>t-509224131880300544</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -635,20 +635,20 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>t-1033108055162941440</t>
+          <t>t-511851013155090432</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>t-497136108463865857</t>
+          <t>t-512006361937616896</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -661,7 +661,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>t-573511311906115584</t>
+          <t>t-512017939579432960</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -674,7 +674,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>t-573530576818434048</t>
+          <t>t-561169293573115904</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -687,33 +687,33 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>t-588022316359151617</t>
+          <t>t-629748063494537216</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>t-588515231380348928</t>
+          <t>t-629757802915848193</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>t-588525414441553920</t>
+          <t>t-688456240490508289</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -726,7 +726,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>t-588659923807907840</t>
+          <t>t-706805466739949568</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -739,20 +739,20 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>t-601392774370340865</t>
+          <t>t-759240736864870400</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>t-712108446167011328</t>
+          <t>t-900499401638129664</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -765,7 +765,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>t-771105696226025472</t>
+          <t>t-900502092674215936</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -778,7 +778,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>t-887086137789091841</t>
+          <t>t-521738184288251906</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -791,46 +791,46 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>t-889549980888969217</t>
+          <t>t-521768704259162112</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>t-889892042435854336</t>
+          <t>t-573511311906115584</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>t-890080777769283584</t>
+          <t>t-573530576818434048</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>t-909776370410168323</t>
+          <t>t-638852256234913792</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -843,7 +843,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>t-937797554313551873</t>
+          <t>t-765195503457882112</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -856,11 +856,11 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>t-937878737382772737</t>
+          <t>t-765297031346655232</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -869,7 +869,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>t-938887720075702272</t>
+          <t>t-775697386924445696</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -882,7 +882,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>t-950310866641149952</t>
+          <t>t-784233737512890376</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -895,7 +895,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>t-965645492616036357</t>
+          <t>t-784234780590080001</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -908,7 +908,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>t-965648872474398721</t>
+          <t>t-922305869466890240</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -921,7 +921,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>t-965652051077357569</t>
+          <t>t-937797554313551873</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -934,7 +934,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>t-966072585061625856</t>
+          <t>t-937878737382772737</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -947,7 +947,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>t-966155045300588545</t>
+          <t>t-938887720075702272</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -960,37 +960,37 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>t-966356829596016640</t>
+          <t>t-956711426009202688</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>t-966362179913093121</t>
+          <t>t-1003697920015851520</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>t-966449125788090370</t>
+          <t>t-1030587514820669441</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C43" t="n">
         <v>1</v>
@@ -999,7 +999,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>t-966450069024239616</t>
+          <t>t-1030625730407874563</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -1012,7 +1012,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>t-966465261950906369</t>
+          <t>t-1031145618503360513</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -1025,20 +1025,20 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>t-966698278606856197</t>
+          <t>t-1031309689848508416</t>
         </is>
       </c>
       <c r="B46" t="n">
         <v>1</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>t-966704060270370817</t>
+          <t>t-1036653090664075265</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -1051,7 +1051,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>t-966706278016999424</t>
+          <t>t-1036716876020285440</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -1064,11 +1064,11 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>t-966769885220163586</t>
+          <t>t-1037295289206546433</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>t-1024388985282383872</t>
+          <t>t-1037346167451992064</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -1090,20 +1090,20 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>t-1030587514820669441</t>
+          <t>t-1037351232451608577</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>t-1030625730407874563</t>
+          <t>t-1037351271697657857</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -1116,7 +1116,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>t-1031145618503360513</t>
+          <t>t-1037367364231344128</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -1129,11 +1129,11 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>t-1031309689848508416</t>
+          <t>t-1037535909296709632</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -1142,11 +1142,11 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>t-1036653090664075265</t>
+          <t>t-1045002319061012482</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
@@ -1155,20 +1155,20 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>t-1036716876020285440</t>
+          <t>t-1045014122092482560</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>t-1037295289206546433</t>
+          <t>t-1045027654121000962</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -1181,11 +1181,11 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>t-1037346167451992064</t>
+          <t>t-1045031106968465408</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
@@ -1194,24 +1194,24 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>t-1037351232451608577</t>
+          <t>t-1045065376575475712</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>t-1037351271697657857</t>
+          <t>t-1054831014869123073</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
@@ -1220,11 +1220,11 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>t-1037367364231344128</t>
+          <t>t-1054887299698380800</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C61" t="n">
         <v>1</v>
@@ -1233,7 +1233,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>t-1037535909296709632</t>
+          <t>t-1055927061867585536</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -1246,24 +1246,24 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>t-694987975168495617</t>
+          <t>t-548492147645640704</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>t-754609055683915776</t>
+          <t>t-832760057259384834</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
@@ -1272,33 +1272,33 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>t-538622557084082176</t>
+          <t>t-832777578633064449</t>
         </is>
       </c>
       <c r="B65" t="n">
         <v>1</v>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>t-591245619513163777</t>
+          <t>t-502103720327671808</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>t-606774570255654912</t>
+          <t>t-925753092301295616</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -1311,46 +1311,46 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>t-608562753129840640</t>
+          <t>t-1012224879310057472</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>t-619895281761423360</t>
+          <t>t-1024774127687749633</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>t-739238212518957060</t>
+          <t>t-615459121891012608</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>t-739379635675271168</t>
+          <t>t-739238212518957060</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -1363,24 +1363,24 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>t-753035409660186624</t>
+          <t>t-739379635675271168</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>t-765818303898058752</t>
+          <t>t-816207402437636096</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C73" t="n">
         <v>1</v>
@@ -1389,37 +1389,37 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>t-835997827369156608</t>
+          <t>t-989808164907319296</t>
         </is>
       </c>
       <c r="B74" t="n">
         <v>1</v>
       </c>
       <c r="C74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>t-893144326049419264</t>
+          <t>t-992796128654524417</t>
         </is>
       </c>
       <c r="B75" t="n">
         <v>0</v>
       </c>
       <c r="C75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>t-976076558824767489</t>
+          <t>t-1010157701769281538</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C76" t="n">
         <v>1</v>
@@ -1428,37 +1428,37 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>t-1049900608294137856</t>
+          <t>t-610241505777856512</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>t-1061557072670670850</t>
+          <t>t-610629417715412992</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>t-1061559942140780544</t>
+          <t>t-717023541078728704</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>t-753345702428827652</t>
+          <t>t-767098705790906368</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -1480,46 +1480,46 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>t-753345808620105728</t>
+          <t>t-923950718209359874</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>t-753350269518409728</t>
+          <t>t-923955178688188416</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>t-757940960609173505</t>
+          <t>t-923988304076464128</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>t-878279115006136321</t>
+          <t>t-751267650043387906</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -1532,20 +1532,20 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>t-745031440031694848</t>
+          <t>t-768897641946181632</t>
         </is>
       </c>
       <c r="B85" t="n">
         <v>0</v>
       </c>
       <c r="C85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>t-767098705790906368</t>
+          <t>t-768901368044134400</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -1558,7 +1558,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>t-962999495893176320</t>
+          <t>t-567811309744705538</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -1571,7 +1571,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>t-751267650043387906</t>
+          <t>t-626070342885249024</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -1584,7 +1584,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>t-587673014826741760</t>
+          <t>t-836993229967015937</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -1597,7 +1597,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>t-587688170382163969</t>
+          <t>t-837317730147713024</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -1610,7 +1610,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>t-618395942002102272</t>
+          <t>t-927521858815131648</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -1623,11 +1623,11 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>t-768897641946181632</t>
+          <t>t-981162868749033472</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
@@ -1636,24 +1636,24 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>t-768901368044134400</t>
+          <t>t-981305166392692736</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>t-623339394989166593</t>
+          <t>t-981306180961275904</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
@@ -1662,7 +1662,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>t-774727266823581696</t>
+          <t>t-1000477141224558594</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -1675,85 +1675,85 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>t-840253641885913088</t>
+          <t>t-921072406919352320</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>t-1031705611933831168</t>
+          <t>t-921102349552275456</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>t-897129980584439812</t>
+          <t>t-921122924505026560</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>t-950852460532428800</t>
+          <t>t-921266455856939008</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>t-843394427347320833</t>
+          <t>t-921341244332113926</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>t-540815358715002880</t>
+          <t>t-921699631360176128</t>
         </is>
       </c>
       <c r="B101" t="n">
         <v>0</v>
       </c>
       <c r="C101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>t-915529742002135041</t>
+          <t>t-950852460532428800</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -1766,20 +1766,20 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>t-915535227245776896</t>
+          <t>t-675047436134543360</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>t-926892709188702208</t>
+          <t>t-783792055160082432</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -1792,7 +1792,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>t-1047112720837951488</t>
+          <t>t-953935668199215104</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -1805,7 +1805,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>t-1047367778901090304</t>
+          <t>t-953991296196149248</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -1818,20 +1818,20 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>t-673151835868430336</t>
+          <t>t-956627624150880257</t>
         </is>
       </c>
       <c r="B107" t="n">
         <v>0</v>
       </c>
       <c r="C107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>t-673156978059968512</t>
+          <t>t-1014948759934066688</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -1844,20 +1844,20 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>t-673168234577838080</t>
+          <t>t-1047112720837951488</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>t-918095751158300672</t>
+          <t>t-1047367778901090304</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -1870,7 +1870,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>t-918096410427486208</t>
+          <t>t-540871484869472256</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -1883,7 +1883,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>t-918845060900380672</t>
+          <t>t-923100909521068032</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -1896,11 +1896,11 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>t-547652103607697408</t>
+          <t>t-552038248218767360</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C113" t="n">
         <v>1</v>
@@ -1909,7 +1909,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>t-843361396750409728</t>
+          <t>t-552266751304798209</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -1922,11 +1922,11 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>t-622526710358114306</t>
+          <t>t-1044757925414273025</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C115" t="n">
         <v>0</v>
@@ -1935,7 +1935,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>t-985892254756884480</t>
+          <t>t-1044770473932816384</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -1948,20 +1948,20 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>t-1062308914354642944</t>
+          <t>t-622526710358114306</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>t-707957967094685696</t>
+          <t>t-692803310668087296</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -1974,11 +1974,11 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>t-1014543719205400576</t>
+          <t>t-752638920505131008</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C119" t="n">
         <v>0</v>
@@ -1987,85 +1987,85 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>t-1014578901966876672</t>
+          <t>t-863530798334476291</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>t-578289267857891328</t>
+          <t>t-961384199684001793</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>t-733769545261944833</t>
+          <t>t-992180383449014272</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>t-745905684248694789</t>
+          <t>t-992184677086777345</t>
         </is>
       </c>
       <c r="B123" t="n">
         <v>1</v>
       </c>
       <c r="C123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>t-745992462448140288</t>
+          <t>t-707957967094685696</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>t-746083614291562497</t>
+          <t>t-590950091256631296</t>
         </is>
       </c>
       <c r="B125" t="n">
         <v>1</v>
       </c>
       <c r="C125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>t-766291748704423936</t>
+          <t>t-594613009575579649</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -2078,7 +2078,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>t-826760200636002305</t>
+          <t>t-759898000407662594</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -2091,33 +2091,33 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>t-849724022598139904</t>
+          <t>t-791266893470568448</t>
         </is>
       </c>
       <c r="B128" t="n">
         <v>0</v>
       </c>
       <c r="C128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>t-891497407179104257</t>
+          <t>t-791268686447378433</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>t-904717770524372993</t>
+          <t>t-849724022598139904</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -2130,20 +2130,20 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>t-961914631135617025</t>
+          <t>t-973190028435353600</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>t-987005505154535425</t>
+          <t>t-636384018599030785</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -2156,24 +2156,24 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>t-621875663901863937</t>
+          <t>t-715573202714562561</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>t-624561158788247552</t>
+          <t>t-809566350368796673</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C134" t="n">
         <v>1</v>
@@ -2182,20 +2182,20 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>t-809566350368796673</t>
+          <t>t-859838431719030785</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>t-992484226795823105</t>
+          <t>t-865899138726100992</t>
         </is>
       </c>
       <c r="B136" t="n">
@@ -2208,24 +2208,24 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>t-1043269235474984960</t>
+          <t>t-992484226795823105</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>t-649543845269667840</t>
+          <t>t-994221853211267073</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C138" t="n">
         <v>0</v>
@@ -2234,7 +2234,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>t-681167053609283584</t>
+          <t>t-858172777098072064</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -2247,24 +2247,24 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>t-694715871097278464</t>
+          <t>t-858203574500818944</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>t-946987966475448325</t>
+          <t>t-858267644507631616</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C141" t="n">
         <v>0</v>
@@ -2273,11 +2273,11 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>t-781685141211058176</t>
+          <t>t-858374877706932224</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C142" t="n">
         <v>0</v>
@@ -2286,11 +2286,11 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>t-1029734360872771584</t>
+          <t>t-858419995453292545</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C143" t="n">
         <v>0</v>
@@ -2299,7 +2299,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>t-888405582352437248</t>
+          <t>t-883046827251179521</t>
         </is>
       </c>
       <c r="B144" t="n">
@@ -2312,20 +2312,20 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>t-992428512744222721</t>
+          <t>t-883048887786909698</t>
         </is>
       </c>
       <c r="B145" t="n">
         <v>0</v>
       </c>
       <c r="C145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>t-892821066799820805</t>
+          <t>t-883064523128791040</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -2338,7 +2338,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>t-898119475089686528</t>
+          <t>t-883077275679432704</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -2351,7 +2351,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>t-898375447507030017</t>
+          <t>t-730685047137800192</t>
         </is>
       </c>
       <c r="B148" t="n">
@@ -2364,24 +2364,24 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>t-898397795245215744</t>
+          <t>t-730687533638619136</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>t-1050667252591120384</t>
+          <t>t-734825704412446721</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C150" t="n">
         <v>0</v>
@@ -2390,59 +2390,59 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>t-692385146725646340</t>
+          <t>t-734826990281187328</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>t-997483790145589248</t>
+          <t>t-872405308236337153</t>
         </is>
       </c>
       <c r="B152" t="n">
         <v>1</v>
       </c>
       <c r="C152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>t-997521947297710081</t>
+          <t>t-748127558550560768</t>
         </is>
       </c>
       <c r="B153" t="n">
         <v>1</v>
       </c>
       <c r="C153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>t-604384366886834177</t>
+          <t>t-758205502480388096</t>
         </is>
       </c>
       <c r="B154" t="n">
         <v>1</v>
       </c>
       <c r="C154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>t-604797500965265408</t>
+          <t>t-758575120290091008</t>
         </is>
       </c>
       <c r="B155" t="n">
@@ -2455,33 +2455,33 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>t-605112787141033985</t>
+          <t>t-1005457960703754240</t>
         </is>
       </c>
       <c r="B156" t="n">
         <v>1</v>
       </c>
       <c r="C156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>t-605369768720396288</t>
+          <t>t-977485288892059648</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>t-726041703153545216</t>
+          <t>t-1044637096198041600</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -2494,20 +2494,20 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>t-726754497737826305</t>
+          <t>t-892821066799820805</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>t-752596726066843648</t>
+          <t>t-662196453281038336</t>
         </is>
       </c>
       <c r="B160" t="n">
@@ -2520,7 +2520,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>t-753413745230094338</t>
+          <t>t-708426270242164736</t>
         </is>
       </c>
       <c r="B161" t="n">
@@ -2533,63 +2533,63 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>t-764530848079155200</t>
+          <t>t-721832870604640260</t>
         </is>
       </c>
       <c r="B162" t="n">
         <v>1</v>
       </c>
       <c r="C162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>t-764927216257949696</t>
+          <t>t-721856912548044800</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>t-785997107094093825</t>
+          <t>t-722873292755828736</t>
         </is>
       </c>
       <c r="B164" t="n">
         <v>0</v>
       </c>
       <c r="C164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>t-815857432882769920</t>
+          <t>t-735525963610660865</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>t-816077181575106560</t>
+          <t>t-736203598091190272</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C166" t="n">
         <v>0</v>
@@ -2598,20 +2598,20 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>t-820042974197334018</t>
+          <t>t-784456849215123457</t>
         </is>
       </c>
       <c r="B167" t="n">
         <v>1</v>
       </c>
       <c r="C167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>t-858067034772566016</t>
+          <t>t-794700824404430848</t>
         </is>
       </c>
       <c r="B168" t="n">
@@ -2624,20 +2624,20 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>t-858109132586483713</t>
+          <t>t-820042974197334018</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>t-900495545885757441</t>
+          <t>t-821459572263100416</t>
         </is>
       </c>
       <c r="B170" t="n">
@@ -2650,59 +2650,59 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>t-900708018983227393</t>
+          <t>t-851625591652720640</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>t-905607663798636547</t>
+          <t>t-852529810760908801</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>t-906292765633515520</t>
+          <t>t-852624282018615296</t>
         </is>
       </c>
       <c r="B173" t="n">
         <v>0</v>
       </c>
       <c r="C173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>t-906696780133388288</t>
+          <t>t-858067034772566016</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>t-998567520113225733</t>
+          <t>t-858109132586483713</t>
         </is>
       </c>
       <c r="B175" t="n">
@@ -2715,37 +2715,37 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>t-1016477854391992320</t>
+          <t>t-859901667361345536</t>
         </is>
       </c>
       <c r="B176" t="n">
         <v>0</v>
       </c>
       <c r="C176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>t-593171698846830592</t>
+          <t>t-894616667350872064</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>t-760920272639852545</t>
+          <t>t-895668017060651009</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C178" t="n">
         <v>1</v>
@@ -2754,85 +2754,85 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>t-760967260039106560</t>
+          <t>t-905607663798636547</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>t-760972532421984261</t>
+          <t>t-906292765633515520</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>t-760978989359833088</t>
+          <t>t-906696780133388288</t>
         </is>
       </c>
       <c r="B181" t="n">
         <v>1</v>
       </c>
       <c r="C181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>t-761017815637696513</t>
+          <t>t-925358435398488064</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>t-761048712214818816</t>
+          <t>t-965598107676430336</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>t-761049587066867712</t>
+          <t>t-1052665207342944261</t>
         </is>
       </c>
       <c r="B184" t="n">
         <v>1</v>
       </c>
       <c r="C184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>t-761050328493985794</t>
+          <t>t-1053196089317306368</t>
         </is>
       </c>
       <c r="B185" t="n">
@@ -2845,7 +2845,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>t-761057847262142465</t>
+          <t>t-1053286918086103042</t>
         </is>
       </c>
       <c r="B186" t="n">
@@ -2858,7 +2858,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>t-885230061556813824</t>
+          <t>t-1054369632671404032</t>
         </is>
       </c>
       <c r="B187" t="n">
@@ -2871,37 +2871,37 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>t-885519574443020288</t>
+          <t>t-593171698846830592</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>t-1004794708802048002</t>
+          <t>t-611619605899939841</t>
         </is>
       </c>
       <c r="B189" t="n">
         <v>0</v>
       </c>
       <c r="C189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>t-1008536493269237760</t>
+          <t>t-626642400555892737</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C190" t="n">
         <v>0</v>
@@ -2910,7 +2910,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>t-1029525697382047746</t>
+          <t>t-626741309693394948</t>
         </is>
       </c>
       <c r="B191" t="n">
@@ -2923,33 +2923,33 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>t-1029541696839798791</t>
+          <t>t-626870204199534598</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>t-1029769212384948225</t>
+          <t>t-628272138890252288</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>t-1032014514642870273</t>
+          <t>t-646027426347155456</t>
         </is>
       </c>
       <c r="B194" t="n">
@@ -2962,33 +2962,33 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>t-1032716444352565254</t>
+          <t>t-727306437798576130</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>t-1032730617966985222</t>
+          <t>t-748353178270199808</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>t-1032743287877251074</t>
+          <t>t-756927547049320448</t>
         </is>
       </c>
       <c r="B197" t="n">
@@ -3001,20 +3001,20 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>t-1032755601561059328</t>
+          <t>t-763041051426775040</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>t-1032777059473358848</t>
+          <t>t-763066608868794368</t>
         </is>
       </c>
       <c r="B199" t="n">
@@ -3027,11 +3027,11 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>t-1032803632398229504</t>
+          <t>t-763135787424636928</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C200" t="n">
         <v>0</v>
@@ -3040,33 +3040,33 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>t-1032806227296890880</t>
+          <t>t-967489391517192192</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>t-1032811146875727872</t>
+          <t>t-1006674770983817217</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>t-1032864439245000704</t>
+          <t>t-1032014514642870273</t>
         </is>
       </c>
       <c r="B203" t="n">
@@ -3079,7 +3079,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>t-1032982302542966789</t>
+          <t>t-1032716444352565254</t>
         </is>
       </c>
       <c r="B204" t="n">
@@ -3092,7 +3092,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>t-1033200303871545344</t>
+          <t>t-1032730617966985222</t>
         </is>
       </c>
       <c r="B205" t="n">
@@ -3105,7 +3105,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>t-1033518891744411648</t>
+          <t>t-1032743287877251074</t>
         </is>
       </c>
       <c r="B206" t="n">
@@ -3118,20 +3118,20 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>t-1054153981998575616</t>
+          <t>t-1032755601561059328</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>t-655463817921626112</t>
+          <t>t-1032777059473358848</t>
         </is>
       </c>
       <c r="B208" t="n">
@@ -3144,7 +3144,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>t-903370281829498882</t>
+          <t>t-1032803632398229504</t>
         </is>
       </c>
       <c r="B209" t="n">
@@ -3157,7 +3157,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>t-1050781684117987329</t>
+          <t>t-1032806227296890880</t>
         </is>
       </c>
       <c r="B210" t="n">
@@ -3170,20 +3170,20 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>t-538650662780022784</t>
+          <t>t-1032811146875727872</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>t-605776092780044291</t>
+          <t>t-1032864439245000704</t>
         </is>
       </c>
       <c r="B212" t="n">
@@ -3196,7 +3196,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>t-630004911024046080</t>
+          <t>t-1032982302542966789</t>
         </is>
       </c>
       <c r="B213" t="n">
@@ -3209,24 +3209,24 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>t-630051857654751232</t>
+          <t>t-1033200303871545344</t>
         </is>
       </c>
       <c r="B214" t="n">
         <v>1</v>
       </c>
       <c r="C214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>t-630833400857919488</t>
+          <t>t-1033518891744411648</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C215" t="n">
         <v>1</v>
@@ -3235,24 +3235,24 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>t-651743798721122304</t>
+          <t>t-683790340701073408</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>t-705116084911763456</t>
+          <t>t-958376851084337153</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C217" t="n">
         <v>0</v>
@@ -3261,20 +3261,20 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>t-726061174727532544</t>
+          <t>t-577773253898477568</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>t-732832771106865153</t>
+          <t>t-577808831918579712</t>
         </is>
       </c>
       <c r="B219" t="n">
@@ -3287,7 +3287,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>t-783921439044841474</t>
+          <t>t-586160130313625600</t>
         </is>
       </c>
       <c r="B220" t="n">
@@ -3300,7 +3300,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>t-784017385615265792</t>
+          <t>t-605776092780044291</t>
         </is>
       </c>
       <c r="B221" t="n">
@@ -3313,11 +3313,11 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>t-784336997477261312</t>
+          <t>t-609714781507993601</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C222" t="n">
         <v>1</v>
@@ -3326,7 +3326,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>t-784835805999198208</t>
+          <t>t-609790992309469184</t>
         </is>
       </c>
       <c r="B223" t="n">
@@ -3339,20 +3339,20 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>t-894936422980964352</t>
+          <t>t-609807635727151104</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>t-1000764381108555776</t>
+          <t>t-610006959677382657</t>
         </is>
       </c>
       <c r="B225" t="n">
@@ -3365,11 +3365,11 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>t-1039508390869786629</t>
+          <t>t-610466198136954881</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C226" t="n">
         <v>0</v>
@@ -3378,7 +3378,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>t-1039553624345661440</t>
+          <t>t-638674545726066688</t>
         </is>
       </c>
       <c r="B227" t="n">
@@ -3391,33 +3391,33 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>t-1039619721644191744</t>
+          <t>t-638724428944150528</t>
         </is>
       </c>
       <c r="B228" t="n">
         <v>1</v>
       </c>
       <c r="C228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>t-1061999891080232961</t>
+          <t>t-639699321500364800</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>t-1063070010954932224</t>
+          <t>t-639804238848237568</t>
         </is>
       </c>
       <c r="B230" t="n">
@@ -3430,11 +3430,11 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>t-1063412203389370368</t>
+          <t>t-651743798721122304</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C231" t="n">
         <v>0</v>
@@ -3443,24 +3443,24 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>t-1063455159370637313</t>
+          <t>t-707575261483687937</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>t-1063463128409800704</t>
+          <t>t-721969035412422656</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C233" t="n">
         <v>0</v>
@@ -3469,11 +3469,11 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>t-1063508201319079936</t>
+          <t>t-722671206881746944</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C234" t="n">
         <v>1</v>
@@ -3482,11 +3482,11 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>t-1063552348386140165</t>
+          <t>t-767994872578056192</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C235" t="n">
         <v>1</v>
@@ -3495,20 +3495,20 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>t-685265326112559104</t>
+          <t>t-783921439044841474</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>t-833086724096028673</t>
+          <t>t-784017385615265792</t>
         </is>
       </c>
       <c r="B237" t="n">
@@ -3521,11 +3521,11 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>t-836430214368481288</t>
+          <t>t-784336997477261312</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C238" t="n">
         <v>1</v>
@@ -3534,7 +3534,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>t-549835920762220544</t>
+          <t>t-784835805999198208</t>
         </is>
       </c>
       <c r="B239" t="n">
@@ -3547,7 +3547,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>t-702894496737071105</t>
+          <t>t-986933673697120257</t>
         </is>
       </c>
       <c r="B240" t="n">
@@ -3560,20 +3560,20 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>t-560425264807944193</t>
+          <t>t-1003317489990848512</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>t-581325099023892480</t>
+          <t>t-1003350897521459202</t>
         </is>
       </c>
       <c r="B242" t="n">
@@ -3586,7 +3586,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>t-581326319130116096</t>
+          <t>t-1003359993201025024</t>
         </is>
       </c>
       <c r="B243" t="n">
@@ -3599,7 +3599,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>t-581406863343779840</t>
+          <t>t-1003379549600731139</t>
         </is>
       </c>
       <c r="B244" t="n">
@@ -3612,20 +3612,20 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>t-581587820248109056</t>
+          <t>t-1049984041888505856</t>
         </is>
       </c>
       <c r="B245" t="n">
         <v>1</v>
       </c>
       <c r="C245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>t-755764875155083264</t>
+          <t>t-1051063984038776837</t>
         </is>
       </c>
       <c r="B246" t="n">
@@ -3638,20 +3638,20 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>t-803598066133573632</t>
+          <t>t-859608993752379392</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>t-811342708061024256</t>
+          <t>t-1045126070540865541</t>
         </is>
       </c>
       <c r="B248" t="n">
@@ -3664,24 +3664,24 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>t-772934103733788672</t>
+          <t>t-655077150693990401</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>t-772960588171403264</t>
+          <t>t-663721804310122496</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C250" t="n">
         <v>1</v>
@@ -3690,7 +3690,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>t-773538620472979456</t>
+          <t>t-702894496737071105</t>
         </is>
       </c>
       <c r="B251" t="n">
@@ -3703,11 +3703,11 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>t-773979956305100800</t>
+          <t>t-560425264807944193</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C252" t="n">
         <v>1</v>
@@ -3716,11 +3716,11 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>t-884449137407791104</t>
+          <t>t-933464546110529538</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C253" t="n">
         <v>1</v>
@@ -3729,11 +3729,11 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>t-885109132638003200</t>
+          <t>t-668121380727226368</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C254" t="n">
         <v>1</v>
@@ -3742,7 +3742,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>t-885140571232374784</t>
+          <t>t-854766668387684352</t>
         </is>
       </c>
       <c r="B255" t="n">
@@ -3755,7 +3755,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>t-885166687825350662</t>
+          <t>t-855160087563907072</t>
         </is>
       </c>
       <c r="B256" t="n">
@@ -3768,7 +3768,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>t-885188751936417793</t>
+          <t>t-855212425251086337</t>
         </is>
       </c>
       <c r="B257" t="n">
@@ -3781,11 +3781,11 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>t-957965473316069376</t>
+          <t>t-571711350180868097</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C258" t="n">
         <v>1</v>
@@ -3794,11 +3794,11 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>t-984138305477505025</t>
+          <t>t-787849177581649920</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C259" t="n">
         <v>1</v>
@@ -3807,7 +3807,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>t-992126872036233224</t>
+          <t>t-764130662836084739</t>
         </is>
       </c>
       <c r="B260" t="n">
@@ -3820,24 +3820,24 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>t-993085432052273153</t>
+          <t>t-925720058432811008</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>t-578003881596215296</t>
+          <t>t-887004122628710405</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C262" t="n">
         <v>1</v>
@@ -3846,20 +3846,20 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>t-651859489713291264</t>
+          <t>t-887017424306008065</t>
         </is>
       </c>
       <c r="B263" t="n">
         <v>0</v>
       </c>
       <c r="C263" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>t-652540388272553984</t>
+          <t>t-889534953825779712</t>
         </is>
       </c>
       <c r="B264" t="n">
@@ -3872,46 +3872,46 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>t-652542102539235329</t>
+          <t>t-889639312169500672</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>t-741029103147442176</t>
+          <t>t-893133071528202241</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>t-787849177581649920</t>
+          <t>t-1033036271491461120</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>t-798356661148655616</t>
+          <t>t-1057298961642471425</t>
         </is>
       </c>
       <c r="B268" t="n">
@@ -3924,24 +3924,24 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>t-798650812511588352</t>
+          <t>t-873677712304463872</t>
         </is>
       </c>
       <c r="B269" t="n">
         <v>1</v>
       </c>
       <c r="C269" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>t-764130662836084739</t>
+          <t>t-874804635327905792</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C270" t="n">
         <v>0</v>
@@ -3950,7 +3950,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>t-771375628176072704</t>
+          <t>t-822759706078969856</t>
         </is>
       </c>
       <c r="B271" t="n">
@@ -3963,20 +3963,20 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>t-860196024056414208</t>
+          <t>t-822817083591446532</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C272" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>t-887004122628710405</t>
+          <t>t-765721842803802112</t>
         </is>
       </c>
       <c r="B273" t="n">
@@ -3989,11 +3989,11 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>t-887017424306008065</t>
+          <t>t-848618580681912320</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C274" t="n">
         <v>0</v>
@@ -4002,33 +4002,33 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>t-893133071528202241</t>
+          <t>t-848657153367953411</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C275" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>t-960911174505238534</t>
+          <t>t-848877245439594496</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C276" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>t-1033036271491461120</t>
+          <t>t-880307230364508160</t>
         </is>
       </c>
       <c r="B277" t="n">
@@ -4041,37 +4041,37 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>t-609166003570802689</t>
+          <t>t-1041460734738063360</t>
         </is>
       </c>
       <c r="B278" t="n">
         <v>1</v>
       </c>
       <c r="C278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>t-822759706078969856</t>
+          <t>t-1041507023660081152</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>t-822817083591446532</t>
+          <t>t-1049990926406492160</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C280" t="n">
         <v>1</v>
@@ -4080,46 +4080,46 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>t-880307230364508160</t>
+          <t>t-629437596280750080</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C281" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>t-910191038052077569</t>
+          <t>t-636961984953630720</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C282" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>t-1038395251214495744</t>
+          <t>t-680032445673148416</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>t-1038467054960095234</t>
+          <t>t-771587937746071552</t>
         </is>
       </c>
       <c r="B284" t="n">
@@ -4132,7 +4132,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>t-1038555106885681153</t>
+          <t>t-646070620120215552</t>
         </is>
       </c>
       <c r="B285" t="n">
@@ -4145,7 +4145,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>t-610843183715463168</t>
+          <t>t-671722697408290816</t>
         </is>
       </c>
       <c r="B286" t="n">
@@ -4158,20 +4158,20 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>t-880261784304631810</t>
+          <t>t-659172274482733056</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C287" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>t-622598644009668608</t>
+          <t>t-659184469690175488</t>
         </is>
       </c>
       <c r="B288" t="n">
@@ -4184,37 +4184,37 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>t-634366408906768384</t>
+          <t>t-678946767459618818</t>
         </is>
       </c>
       <c r="B289" t="n">
         <v>0</v>
       </c>
       <c r="C289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>t-636961984953630720</t>
+          <t>t-679082878148341760</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C290" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>t-735633517237919744</t>
+          <t>t-661127792231321600</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C291" t="n">
         <v>1</v>
@@ -4223,7 +4223,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>t-1039755728448352257</t>
+          <t>t-867110157813075968</t>
         </is>
       </c>
       <c r="B292" t="n">
@@ -4236,7 +4236,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>t-1039888860501688320</t>
+          <t>t-867380655289761792</t>
         </is>
       </c>
       <c r="B293" t="n">
@@ -4249,7 +4249,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>t-643571264011898881</t>
+          <t>t-867711994765471750</t>
         </is>
       </c>
       <c r="B294" t="n">
@@ -4262,20 +4262,20 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>t-646070620120215552</t>
+          <t>t-867724212827545601</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C295" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>t-719978473687633922</t>
+          <t>t-868084138674454528</t>
         </is>
       </c>
       <c r="B296" t="n">
@@ -4288,63 +4288,63 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>t-651424335614353409</t>
+          <t>t-868161755167547394</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C297" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>t-651596952564572160</t>
+          <t>t-868563701057679360</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C298" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>t-756001538783326208</t>
+          <t>t-869251443236249600</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>t-756128433025843200</t>
+          <t>t-869321042807988224</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>t-756153001300156416</t>
+          <t>t-869576732906532865</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C301" t="n">
         <v>1</v>
@@ -4353,20 +4353,20 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>t-756172674531942400</t>
+          <t>t-685125009120038913</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>t-981921278876684288</t>
+          <t>t-720246081364365312</t>
         </is>
       </c>
       <c r="B303" t="n">
@@ -4379,20 +4379,20 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>t-667433104118833152</t>
+          <t>t-720295493985677312</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C304" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>t-762366384747589634</t>
+          <t>t-931989476401926144</t>
         </is>
       </c>
       <c r="B305" t="n">
@@ -4405,7 +4405,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>t-762414153185173504</t>
+          <t>t-725450676986335232</t>
         </is>
       </c>
       <c r="B306" t="n">
@@ -4418,7 +4418,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>t-762454271832928257</t>
+          <t>t-913012097595867137</t>
         </is>
       </c>
       <c r="B307" t="n">
@@ -4431,11 +4431,11 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>t-1027575306226475008</t>
+          <t>t-1025467650649014283</t>
         </is>
       </c>
       <c r="B308" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C308" t="n">
         <v>0</v>
@@ -4444,63 +4444,63 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>t-727600217265049600</t>
+          <t>t-1025523844994412544</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C309" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>t-715587588204015616</t>
+          <t>t-1025538626191380480</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C310" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>t-794366500865982467</t>
+          <t>t-1026286692037222401</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C311" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>t-863149830931185664</t>
+          <t>t-1026301775203037184</t>
         </is>
       </c>
       <c r="B312" t="n">
         <v>1</v>
       </c>
       <c r="C312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>t-976481160363692032</t>
+          <t>t-1026820332710252544</t>
         </is>
       </c>
       <c r="B313" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C313" t="n">
         <v>0</v>
@@ -4509,7 +4509,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>t-679420394223345665</t>
+          <t>t-1027725663703363584</t>
         </is>
       </c>
       <c r="B314" t="n">
@@ -4522,11 +4522,11 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>t-954775347962241025</t>
+          <t>t-756636337130774528</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C315" t="n">
         <v>1</v>
@@ -4535,76 +4535,76 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>t-954792612103442432</t>
+          <t>t-998557475266859013</t>
         </is>
       </c>
       <c r="B316" t="n">
         <v>0</v>
       </c>
       <c r="C316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>t-954866409300987904</t>
+          <t>t-999117713749495808</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C317" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>t-859881873865973760</t>
+          <t>t-864828748495020032</t>
         </is>
       </c>
       <c r="B318" t="n">
         <v>1</v>
       </c>
       <c r="C318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>t-859891336627048448</t>
+          <t>t-925465361557975040</t>
         </is>
       </c>
       <c r="B319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>t-859891655167664129</t>
+          <t>t-781155273763192832</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>t-981289690258071552</t>
+          <t>t-783618446827356161</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C321" t="n">
         <v>1</v>
@@ -4613,85 +4613,85 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>t-853267425386803200</t>
+          <t>t-784456852864065536</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C322" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>t-725708603060031489</t>
+          <t>t-797647100565716992</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C323" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>t-744360846420107265</t>
+          <t>t-797655572573143040</t>
         </is>
       </c>
       <c r="B324" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C324" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>t-1016527492478328832</t>
+          <t>t-797814805772046336</t>
         </is>
       </c>
       <c r="B325" t="n">
         <v>1</v>
       </c>
       <c r="C325" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>t-1016293496980955136</t>
+          <t>t-848851618011525120</t>
         </is>
       </c>
       <c r="B326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>t-913112779548176384</t>
+          <t>t-852608222380924929</t>
         </is>
       </c>
       <c r="B327" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C327" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>t-779013669589884928</t>
+          <t>t-852804949515698178</t>
         </is>
       </c>
       <c r="B328" t="n">
@@ -4704,7 +4704,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>t-925465361557975040</t>
+          <t>t-841401006797815808</t>
         </is>
       </c>
       <c r="B329" t="n">
@@ -4717,79 +4717,79 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>t-804685877838565376</t>
+          <t>t-854163806288834560</t>
         </is>
       </c>
       <c r="B330" t="n">
         <v>1</v>
       </c>
       <c r="C330" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>t-830540407763300352</t>
+          <t>t-1047617270736936962</t>
         </is>
       </c>
       <c r="B331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>t-1047617270736936962</t>
+          <t>t-860879398387556352</t>
         </is>
       </c>
       <c r="B332" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C332" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>t-860879398387556352</t>
+          <t>t-1036704309923246081</t>
         </is>
       </c>
       <c r="B333" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C333" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>t-901254745888878592</t>
+          <t>t-974764041968132096</t>
         </is>
       </c>
       <c r="B334" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C334" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>t-880971995671875586</t>
+          <t>t-974840717116956673</t>
         </is>
       </c>
       <c r="B335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336">
@@ -4808,50 +4808,50 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>t-673357306764140544</t>
+          <t>t-1042831980822454273</t>
         </is>
       </c>
       <c r="B337" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C337" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>t-708340740556980225</t>
+          <t>t-1042864703981084672</t>
         </is>
       </c>
       <c r="B338" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C338" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>t-912723744195596289</t>
+          <t>t-1042868533963776005</t>
         </is>
       </c>
       <c r="B339" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C339" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>t-941194598453571586</t>
+          <t>t-1043255346553389058</t>
         </is>
       </c>
       <c r="B340" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C340" t="n">
         <v>0</v>
@@ -4860,37 +4860,37 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>t-519370037812277248</t>
+          <t>t-499943241962487808</t>
         </is>
       </c>
       <c r="B341" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C341" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>t-650288114116730880</t>
+          <t>t-621860106481762304</t>
         </is>
       </c>
       <c r="B342" t="n">
         <v>0</v>
       </c>
       <c r="C342" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>t-738823278840664064</t>
+          <t>t-898367654507032576</t>
         </is>
       </c>
       <c r="B343" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C343" t="n">
         <v>1</v>
@@ -4899,11 +4899,11 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>t-927168021512126464</t>
+          <t>t-952288702339997696</t>
         </is>
       </c>
       <c r="B344" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C344" t="n">
         <v>0</v>
@@ -4912,11 +4912,11 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>t-1001002093895921665</t>
+          <t>t-952549733930885120</t>
         </is>
       </c>
       <c r="B345" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C345" t="n">
         <v>1</v>
@@ -4925,37 +4925,37 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>t-522926675542421504</t>
+          <t>t-952956945098473472</t>
         </is>
       </c>
       <c r="B346" t="n">
         <v>1</v>
       </c>
       <c r="C346" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>t-699600707318587392</t>
+          <t>t-1019582623679696898</t>
         </is>
       </c>
       <c r="B347" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C347" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>t-737154199411122176</t>
+          <t>t-1040961500553388033</t>
         </is>
       </c>
       <c r="B348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C348" t="n">
         <v>0</v>
@@ -4964,7 +4964,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>t-615884908238651393</t>
+          <t>t-1027253242261069824</t>
         </is>
       </c>
       <c r="B349" t="n">
@@ -4977,24 +4977,24 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>t-782797451639914497</t>
+          <t>t-650288114116730880</t>
         </is>
       </c>
       <c r="B350" t="n">
         <v>0</v>
       </c>
       <c r="C350" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>t-951835055445413893</t>
+          <t>t-738823278840664064</t>
         </is>
       </c>
       <c r="B351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C351" t="n">
         <v>1</v>
@@ -5003,33 +5003,33 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>t-530728667891380225</t>
+          <t>t-773146400129441792</t>
         </is>
       </c>
       <c r="B352" t="n">
         <v>0</v>
       </c>
       <c r="C352" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>t-738708820491259904</t>
+          <t>t-517992573227778048</t>
         </is>
       </c>
       <c r="B353" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C353" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>t-738754856811417601</t>
+          <t>t-737657149174730753</t>
         </is>
       </c>
       <c r="B354" t="n">
@@ -5042,7 +5042,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>t-738830571351224320</t>
+          <t>t-737657922885423104</t>
         </is>
       </c>
       <c r="B355" t="n">
@@ -5055,7 +5055,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>t-739181708906467329</t>
+          <t>t-738291666285694976</t>
         </is>
       </c>
       <c r="B356" t="n">
@@ -5068,24 +5068,24 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>t-875802481292439553</t>
+          <t>t-520483074711486464</t>
         </is>
       </c>
       <c r="B357" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C357" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>t-957544710825967616</t>
+          <t>t-520499948983304192</t>
         </is>
       </c>
       <c r="B358" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C358" t="n">
         <v>1</v>
@@ -5094,7 +5094,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>t-960182659325493248</t>
+          <t>t-520513908759859200</t>
         </is>
       </c>
       <c r="B359" t="n">
@@ -5107,7 +5107,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>t-965860574339923968</t>
+          <t>t-589443945773535232</t>
         </is>
       </c>
       <c r="B360" t="n">
@@ -5120,11 +5120,11 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>t-541965663666184192</t>
+          <t>t-644488507239628800</t>
         </is>
       </c>
       <c r="B361" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C361" t="n">
         <v>0</v>
@@ -5133,20 +5133,20 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>t-538959622858883072</t>
+          <t>t-644488513442983937</t>
         </is>
       </c>
       <c r="B362" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C362" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>t-744549085244334080</t>
+          <t>t-832598430291730433</t>
         </is>
       </c>
       <c r="B363" t="n">
@@ -5159,7 +5159,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>t-744630770116005888</t>
+          <t>t-530728667891380225</t>
         </is>
       </c>
       <c r="B364" t="n">
@@ -5172,7 +5172,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>t-745023417267724289</t>
+          <t>t-580349296182198273</t>
         </is>
       </c>
       <c r="B365" t="n">
@@ -5185,11 +5185,11 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>t-745961763473080321</t>
+          <t>t-595202959648096256</t>
         </is>
       </c>
       <c r="B366" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C366" t="n">
         <v>0</v>
@@ -5198,24 +5198,24 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>t-746461142604668928</t>
+          <t>t-865447859285405696</t>
         </is>
       </c>
       <c r="B367" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C367" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>t-783909177920020480</t>
+          <t>t-865573879527428096</t>
         </is>
       </c>
       <c r="B368" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C368" t="n">
         <v>1</v>
@@ -5224,11 +5224,11 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>t-784305124269182976</t>
+          <t>t-538674754086244353</t>
         </is>
       </c>
       <c r="B369" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C369" t="n">
         <v>1</v>
@@ -5237,11 +5237,11 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>t-933614181286318081</t>
+          <t>t-984048304144166912</t>
         </is>
       </c>
       <c r="B370" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C370" t="n">
         <v>0</v>
@@ -5250,20 +5250,20 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>t-933625586442035205</t>
+          <t>t-984354039067529216</t>
         </is>
       </c>
       <c r="B371" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C371" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>t-981811338774183936</t>
+          <t>t-608655874496692224</t>
         </is>
       </c>
       <c r="B372" t="n">
@@ -5276,7 +5276,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>t-982165823350423552</t>
+          <t>t-609338660572536832</t>
         </is>
       </c>
       <c r="B373" t="n">
@@ -5289,7 +5289,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>t-1052528388341149696</t>
+          <t>t-609783303168782337</t>
         </is>
       </c>
       <c r="B374" t="n">
@@ -5302,20 +5302,20 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>t-580823195311276032</t>
+          <t>t-610483675487203328</t>
         </is>
       </c>
       <c r="B375" t="n">
         <v>0</v>
       </c>
       <c r="C375" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>t-649269312625209344</t>
+          <t>t-677902230650003457</t>
         </is>
       </c>
       <c r="B376" t="n">
@@ -5328,20 +5328,20 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>t-653928809671081984</t>
+          <t>t-694507587149111296</t>
         </is>
       </c>
       <c r="B377" t="n">
         <v>0</v>
       </c>
       <c r="C377" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>t-740095983602782208</t>
+          <t>t-734290700469166080</t>
         </is>
       </c>
       <c r="B378" t="n">
@@ -5354,50 +5354,50 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>t-571286359673053184</t>
+          <t>t-744549085244334080</t>
         </is>
       </c>
       <c r="B379" t="n">
         <v>1</v>
       </c>
       <c r="C379" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>t-571344417145135105</t>
+          <t>t-744630770116005888</t>
         </is>
       </c>
       <c r="B380" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C380" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>t-828957006832795648</t>
+          <t>t-745023417267724289</t>
         </is>
       </c>
       <c r="B381" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C381" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>t-832880826807418880</t>
+          <t>t-745961763473080321</t>
         </is>
       </c>
       <c r="B382" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C382" t="n">
         <v>1</v>
@@ -5406,59 +5406,59 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>t-801715561692626944</t>
+          <t>t-746461142604668928</t>
         </is>
       </c>
       <c r="B383" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C383" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>t-801720307002339328</t>
+          <t>t-762281733672820736</t>
         </is>
       </c>
       <c r="B384" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C384" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>t-567369806647951362</t>
+          <t>t-769394896344064001</t>
         </is>
       </c>
       <c r="B385" t="n">
         <v>0</v>
       </c>
       <c r="C385" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>t-567639888489500672</t>
+          <t>t-884135398854635520</t>
         </is>
       </c>
       <c r="B386" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C386" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>t-707530442468098049</t>
+          <t>t-884163532958441472</t>
         </is>
       </c>
       <c r="B387" t="n">
@@ -5471,20 +5471,20 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>t-707587020831518720</t>
+          <t>t-884173621224239104</t>
         </is>
       </c>
       <c r="B388" t="n">
         <v>1</v>
       </c>
       <c r="C388" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>t-633755138834874368</t>
+          <t>t-884176826679136256</t>
         </is>
       </c>
       <c r="B389" t="n">
@@ -5497,20 +5497,20 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>t-865160167155003392</t>
+          <t>t-884179431887167489</t>
         </is>
       </c>
       <c r="B390" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C390" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>t-580822339648122880</t>
+          <t>t-884282035384320001</t>
         </is>
       </c>
       <c r="B391" t="n">
@@ -5523,11 +5523,11 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>t-581167008596758528</t>
+          <t>t-884290062598451200</t>
         </is>
       </c>
       <c r="B392" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C392" t="n">
         <v>1</v>
@@ -5536,76 +5536,76 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>t-660085012306395136</t>
+          <t>t-884310032518664194</t>
         </is>
       </c>
       <c r="B393" t="n">
         <v>1</v>
       </c>
       <c r="C393" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>t-850396935152422913</t>
+          <t>t-884325033430200320</t>
         </is>
       </c>
       <c r="B394" t="n">
         <v>1</v>
       </c>
       <c r="C394" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>t-859839256700882944</t>
+          <t>t-894594064582094852</t>
         </is>
       </c>
       <c r="B395" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C395" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>t-860843222091935744</t>
+          <t>t-950088164777123841</t>
         </is>
       </c>
       <c r="B396" t="n">
         <v>1</v>
       </c>
       <c r="C396" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>t-861496628741640192</t>
+          <t>t-950818741209747456</t>
         </is>
       </c>
       <c r="B397" t="n">
         <v>1</v>
       </c>
       <c r="C397" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>t-862635910306856964</t>
+          <t>t-951169520584024064</t>
         </is>
       </c>
       <c r="B398" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C398" t="n">
         <v>0</v>
@@ -5614,46 +5614,46 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>t-862992827487309824</t>
+          <t>t-951600654866317313</t>
         </is>
       </c>
       <c r="B399" t="n">
         <v>0</v>
       </c>
       <c r="C399" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>t-863003997464080384</t>
+          <t>t-951687956045156352</t>
         </is>
       </c>
       <c r="B400" t="n">
         <v>0</v>
       </c>
       <c r="C400" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>t-863121747360571392</t>
+          <t>t-954338199610019841</t>
         </is>
       </c>
       <c r="B401" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C401" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>t-1027292918111825921</t>
+          <t>t-954407598069084160</t>
         </is>
       </c>
       <c r="B402" t="n">
@@ -5666,20 +5666,20 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>t-592904512131768321</t>
+          <t>t-954798702530412546</t>
         </is>
       </c>
       <c r="B403" t="n">
         <v>0</v>
       </c>
       <c r="C403" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>t-595251975568109568</t>
+          <t>t-955111272852414464</t>
         </is>
       </c>
       <c r="B404" t="n">
@@ -5692,7 +5692,7 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>t-740222976763830272</t>
+          <t>t-955374632034594816</t>
         </is>
       </c>
       <c r="B405" t="n">
@@ -5705,11 +5705,11 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>t-740225059193819140</t>
+          <t>t-955380505121259520</t>
         </is>
       </c>
       <c r="B406" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C406" t="n">
         <v>1</v>
@@ -5718,7 +5718,7 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>t-740231562940297216</t>
+          <t>t-955409675251482624</t>
         </is>
       </c>
       <c r="B407" t="n">
@@ -5731,37 +5731,37 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>t-740233568627068929</t>
+          <t>t-955739643634421760</t>
         </is>
       </c>
       <c r="B408" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C408" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>t-740511241383387136</t>
+          <t>t-955742558189162496</t>
         </is>
       </c>
       <c r="B409" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C409" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>t-741661270017970176</t>
+          <t>t-955766281730445313</t>
         </is>
       </c>
       <c r="B410" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C410" t="n">
         <v>1</v>
@@ -5770,11 +5770,11 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>t-746801790117646336</t>
+          <t>t-955807241533304833</t>
         </is>
       </c>
       <c r="B411" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C411" t="n">
         <v>0</v>
@@ -5783,46 +5783,46 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>t-746821154074206210</t>
+          <t>t-956101750120857601</t>
         </is>
       </c>
       <c r="B412" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C412" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>t-717265029461049349</t>
+          <t>t-956220929067151360</t>
         </is>
       </c>
       <c r="B413" t="n">
         <v>0</v>
       </c>
       <c r="C413" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>t-955539710214057984</t>
+          <t>t-956413340225589248</t>
         </is>
       </c>
       <c r="B414" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C414" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>t-955816204769390593</t>
+          <t>t-956438932681523200</t>
         </is>
       </c>
       <c r="B415" t="n">
@@ -5835,89 +5835,89 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>t-940349476509814789</t>
+          <t>t-956447631714279424</t>
         </is>
       </c>
       <c r="B416" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C416" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>t-608880570362437632</t>
+          <t>t-956464588559671297</t>
         </is>
       </c>
       <c r="B417" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C417" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>t-769927127475097602</t>
+          <t>t-956513066228834304</t>
         </is>
       </c>
       <c r="B418" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C418" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>t-1008697922366689285</t>
+          <t>t-974595772317659137</t>
         </is>
       </c>
       <c r="B419" t="n">
         <v>0</v>
       </c>
       <c r="C419" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>t-1032956238051659778</t>
+          <t>t-976509689000325120</t>
         </is>
       </c>
       <c r="B420" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C420" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>t-1018847155090542593</t>
+          <t>t-977899948724379649</t>
         </is>
       </c>
       <c r="B421" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C421" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>t-650407824212660224</t>
+          <t>t-987423120817643520</t>
         </is>
       </c>
       <c r="B422" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C422" t="n">
         <v>1</v>
@@ -5926,7 +5926,7 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>t-650415832523255809</t>
+          <t>t-1008363588552151040</t>
         </is>
       </c>
       <c r="B423" t="n">
@@ -5939,24 +5939,24 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>t-650581180757073921</t>
+          <t>t-1038002421543391232</t>
         </is>
       </c>
       <c r="B424" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C424" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>t-650584856162926592</t>
+          <t>t-1052528388341149696</t>
         </is>
       </c>
       <c r="B425" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C425" t="n">
         <v>0</v>
@@ -5965,46 +5965,46 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>t-650605489492000769</t>
+          <t>t-1060529365962948608</t>
         </is>
       </c>
       <c r="B426" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C426" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>t-656425382145597440</t>
+          <t>t-580823195311276032</t>
         </is>
       </c>
       <c r="B427" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C427" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>t-925429606693457921</t>
+          <t>t-549859905231142914</t>
         </is>
       </c>
       <c r="B428" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C428" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>t-1056610127975997440</t>
+          <t>t-712209810511564800</t>
         </is>
       </c>
       <c r="B429" t="n">
@@ -6017,7 +6017,7 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>t-652148120952803329</t>
+          <t>t-750337802257129474</t>
         </is>
       </c>
       <c r="B430" t="n">
@@ -6030,7 +6030,7 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>t-656869699980955649</t>
+          <t>t-1014607937048850434</t>
         </is>
       </c>
       <c r="B431" t="n">
@@ -6043,33 +6043,33 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>t-657672314465726464</t>
+          <t>t-560682074529484800</t>
         </is>
       </c>
       <c r="B432" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C432" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>t-663799425475731457</t>
+          <t>t-699529516008476673</t>
         </is>
       </c>
       <c r="B433" t="n">
         <v>0</v>
       </c>
       <c r="C433" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>t-784413747376893952</t>
+          <t>t-820214611416928256</t>
         </is>
       </c>
       <c r="B434" t="n">
@@ -6082,11 +6082,11 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>t-808055620339384324</t>
+          <t>t-831105804946247681</t>
         </is>
       </c>
       <c r="B435" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C435" t="n">
         <v>1</v>
@@ -6095,11 +6095,11 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>t-687198236776464384</t>
+          <t>t-832880826807418880</t>
         </is>
       </c>
       <c r="B436" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C436" t="n">
         <v>1</v>
@@ -6108,33 +6108,33 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>t-943797632639610881</t>
+          <t>t-888058781363580930</t>
         </is>
       </c>
       <c r="B437" t="n">
         <v>1</v>
       </c>
       <c r="C437" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>t-948994988666425345</t>
+          <t>t-917052938425716736</t>
         </is>
       </c>
       <c r="B438" t="n">
         <v>1</v>
       </c>
       <c r="C438" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>t-949010413437497347</t>
+          <t>t-917054284579078144</t>
         </is>
       </c>
       <c r="B439" t="n">
@@ -6147,7 +6147,7 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>t-949151246799142913</t>
+          <t>t-917061971631108097</t>
         </is>
       </c>
       <c r="B440" t="n">
@@ -6160,7 +6160,7 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>t-708088836748910592</t>
+          <t>t-917080429227778048</t>
         </is>
       </c>
       <c r="B441" t="n">
@@ -6173,7 +6173,7 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>t-715965241637470208</t>
+          <t>t-917105709682216960</t>
         </is>
       </c>
       <c r="B442" t="n">
@@ -6186,111 +6186,111 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>t-852243165302198273</t>
+          <t>t-1057351782484115458</t>
         </is>
       </c>
       <c r="B443" t="n">
         <v>0</v>
       </c>
       <c r="C443" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>t-728492484175745024</t>
+          <t>t-1034815239219539970</t>
         </is>
       </c>
       <c r="B444" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C444" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>t-741709377703411712</t>
+          <t>t-657116242692734976</t>
         </is>
       </c>
       <c r="B445" t="n">
         <v>0</v>
       </c>
       <c r="C445" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>t-953202460994232320</t>
+          <t>t-707530442468098049</t>
         </is>
       </c>
       <c r="B446" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C446" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>t-953212881809518592</t>
+          <t>t-707587020831518720</t>
         </is>
       </c>
       <c r="B447" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C447" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>t-751418791951790080</t>
+          <t>t-633755138834874368</t>
         </is>
       </c>
       <c r="B448" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C448" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>t-949613613874077704</t>
+          <t>t-756468934379966464</t>
         </is>
       </c>
       <c r="B449" t="n">
         <v>0</v>
       </c>
       <c r="C449" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>t-963803678573547520</t>
+          <t>t-764514429736132609</t>
         </is>
       </c>
       <c r="B450" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C450" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>t-737663862317682689</t>
+          <t>t-764618483195838464</t>
         </is>
       </c>
       <c r="B451" t="n">
@@ -6303,7 +6303,7 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>t-737736248970911744</t>
+          <t>t-850396935152422913</t>
         </is>
       </c>
       <c r="B452" t="n">
@@ -6316,7 +6316,7 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>t-957301618868965376</t>
+          <t>t-962759977394991104</t>
         </is>
       </c>
       <c r="B453" t="n">
@@ -6329,33 +6329,33 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>t-955134939699310592</t>
+          <t>t-737572670372339712</t>
         </is>
       </c>
       <c r="B454" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C454" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>t-1006391548668514309</t>
+          <t>t-592904512131768321</t>
         </is>
       </c>
       <c r="B455" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C455" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>t-1006459221448318981</t>
+          <t>t-595251975568109568</t>
         </is>
       </c>
       <c r="B456" t="n">
@@ -6368,11 +6368,11 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>t-738250548865032192</t>
+          <t>t-612970627083968512</t>
         </is>
       </c>
       <c r="B457" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C457" t="n">
         <v>0</v>
@@ -6381,20 +6381,20 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>t-738751926372827136</t>
+          <t>t-740222976763830272</t>
         </is>
       </c>
       <c r="B458" t="n">
         <v>1</v>
       </c>
       <c r="C458" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>t-1002274254954647552</t>
+          <t>t-740225059193819140</t>
         </is>
       </c>
       <c r="B459" t="n">
@@ -6407,7 +6407,7 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>t-1002283218085863430</t>
+          <t>t-740231562940297216</t>
         </is>
       </c>
       <c r="B460" t="n">
@@ -6420,7 +6420,7 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>t-740256345773985793</t>
+          <t>t-740233568627068929</t>
         </is>
       </c>
       <c r="B461" t="n">
@@ -6433,7 +6433,7 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>t-740517137236647936</t>
+          <t>t-740511241383387136</t>
         </is>
       </c>
       <c r="B462" t="n">
@@ -6446,7 +6446,7 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>t-743445326611251200</t>
+          <t>t-741661270017970176</t>
         </is>
       </c>
       <c r="B463" t="n">
@@ -6459,11 +6459,11 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>t-824202245172592640</t>
+          <t>t-746801790117646336</t>
         </is>
       </c>
       <c r="B464" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C464" t="n">
         <v>0</v>
@@ -6472,7 +6472,7 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>t-755694559401762816</t>
+          <t>t-746821154074206210</t>
         </is>
       </c>
       <c r="B465" t="n">
@@ -6485,20 +6485,20 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>t-760154379307458560</t>
+          <t>t-956419595136585729</t>
         </is>
       </c>
       <c r="B466" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C466" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>t-767290506456039424</t>
+          <t>t-743905323543629825</t>
         </is>
       </c>
       <c r="B467" t="n">
@@ -6511,37 +6511,37 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>t-806105457077186561</t>
+          <t>t-1050165943790460929</t>
         </is>
       </c>
       <c r="B468" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C468" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>t-806175022247280641</t>
+          <t>t-776349771640496128</t>
         </is>
       </c>
       <c r="B469" t="n">
         <v>0</v>
       </c>
       <c r="C469" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>t-806834354802438144</t>
+          <t>t-940349476509814789</t>
         </is>
       </c>
       <c r="B470" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C470" t="n">
         <v>1</v>
@@ -6550,11 +6550,11 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>t-834086991646048256</t>
+          <t>t-610036486059200513</t>
         </is>
       </c>
       <c r="B471" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C471" t="n">
         <v>1</v>
@@ -6563,24 +6563,24 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>t-834349788053266432</t>
+          <t>t-612221773757681664</t>
         </is>
       </c>
       <c r="B472" t="n">
         <v>1</v>
       </c>
       <c r="C472" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>t-960991499604328448</t>
+          <t>t-1019348620489969664</t>
         </is>
       </c>
       <c r="B473" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C473" t="n">
         <v>0</v>
@@ -6589,11 +6589,11 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>t-834314501134614528</t>
+          <t>t-1021061872274018305</t>
         </is>
       </c>
       <c r="B474" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C474" t="n">
         <v>0</v>
@@ -6602,20 +6602,20 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>t-990385513898094592</t>
+          <t>t-615666964451606528</t>
         </is>
       </c>
       <c r="B475" t="n">
         <v>1</v>
       </c>
       <c r="C475" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>t-875285232924188672</t>
+          <t>t-615728570888003584</t>
         </is>
       </c>
       <c r="B476" t="n">
@@ -6628,11 +6628,11 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>t-887201249715789824</t>
+          <t>t-769927127475097602</t>
         </is>
       </c>
       <c r="B477" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C477" t="n">
         <v>1</v>
@@ -6641,20 +6641,20 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>t-887813365304705024</t>
+          <t>t-619208680349765633</t>
         </is>
       </c>
       <c r="B478" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C478" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>t-894025914476105728</t>
+          <t>t-633703854580830208</t>
         </is>
       </c>
       <c r="B479" t="n">
@@ -6667,11 +6667,11 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>t-904852554470883329</t>
+          <t>t-900842879182131201</t>
         </is>
       </c>
       <c r="B480" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C480" t="n">
         <v>1</v>
@@ -6680,33 +6680,33 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>t-905976569503592449</t>
+          <t>t-1018847155090542593</t>
         </is>
       </c>
       <c r="B481" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C481" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>t-906394228602949632</t>
+          <t>t-650407824212660224</t>
         </is>
       </c>
       <c r="B482" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C482" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>t-906936222282547201</t>
+          <t>t-650415832523255809</t>
         </is>
       </c>
       <c r="B483" t="n">
@@ -6719,50 +6719,50 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>t-906965286787710976</t>
+          <t>t-650581180757073921</t>
         </is>
       </c>
       <c r="B484" t="n">
         <v>1</v>
       </c>
       <c r="C484" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>t-907173357510184965</t>
+          <t>t-650584856162926592</t>
         </is>
       </c>
       <c r="B485" t="n">
         <v>1</v>
       </c>
       <c r="C485" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>t-907196691270569985</t>
+          <t>t-650605489492000769</t>
         </is>
       </c>
       <c r="B486" t="n">
         <v>1</v>
       </c>
       <c r="C486" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>t-940225923332403204</t>
+          <t>t-656425382145597440</t>
         </is>
       </c>
       <c r="B487" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C487" t="n">
         <v>1</v>
@@ -6771,20 +6771,20 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>t-940273268677849088</t>
+          <t>t-984045729260982272</t>
         </is>
       </c>
       <c r="B488" t="n">
         <v>0</v>
       </c>
       <c r="C488" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>t-955559981331419136</t>
+          <t>t-1056610127975997440</t>
         </is>
       </c>
       <c r="B489" t="n">
@@ -6797,11 +6797,11 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>t-958848005502681088</t>
+          <t>t-663799425475731457</t>
         </is>
       </c>
       <c r="B490" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C490" t="n">
         <v>1</v>
@@ -6810,24 +6810,24 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>t-959068004729475072</t>
+          <t>t-908615579501780992</t>
         </is>
       </c>
       <c r="B491" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C491" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>t-988323500330045442</t>
+          <t>t-660041764225589248</t>
         </is>
       </c>
       <c r="B492" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C492" t="n">
         <v>1</v>
@@ -6836,7 +6836,7 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>t-1043053295298899968</t>
+          <t>t-685089211784019968</t>
         </is>
       </c>
       <c r="B493" t="n">
@@ -6849,20 +6849,20 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>t-1043072721595375616</t>
+          <t>t-698444957653278721</t>
         </is>
       </c>
       <c r="B494" t="n">
         <v>1</v>
       </c>
       <c r="C494" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>t-1043145723687129090</t>
+          <t>t-829095437466533888</t>
         </is>
       </c>
       <c r="B495" t="n">
@@ -6875,37 +6875,37 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>t-673149443068309504</t>
+          <t>t-728492484175745024</t>
         </is>
       </c>
       <c r="B496" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C496" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>t-845604671851057152</t>
+          <t>t-730493187534413824</t>
         </is>
       </c>
       <c r="B497" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C497" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>t-532541340023017473</t>
+          <t>t-730679314916757504</t>
         </is>
       </c>
       <c r="B498" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C498" t="n">
         <v>1</v>
@@ -6914,11 +6914,11 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>t-537546537975685120</t>
+          <t>t-953202460994232320</t>
         </is>
       </c>
       <c r="B499" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C499" t="n">
         <v>0</v>
@@ -6927,72 +6927,72 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>t-537578272348205056</t>
+          <t>t-953212881809518592</t>
         </is>
       </c>
       <c r="B500" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C500" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>t-537578565139582976</t>
+          <t>t-751418791951790080</t>
         </is>
       </c>
       <c r="B501" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C501" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>t-537896255347646465</t>
+          <t>t-1003603539539742720</t>
         </is>
       </c>
       <c r="B502" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C502" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>t-575891615593721856</t>
+          <t>t-737703959993913344</t>
         </is>
       </c>
       <c r="B503" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C503" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>t-629559315221737472</t>
+          <t>t-737753796202385408</t>
         </is>
       </c>
       <c r="B504" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C504" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>t-658803849289990144</t>
+          <t>t-737755886211477504</t>
         </is>
       </c>
       <c r="B505" t="n">
@@ -7005,11 +7005,11 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>t-659014102774325248</t>
+          <t>t-737784335567364096</t>
         </is>
       </c>
       <c r="B506" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C506" t="n">
         <v>1</v>
@@ -7018,11 +7018,11 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>t-664426560234110976</t>
+          <t>t-737884729626791936</t>
         </is>
       </c>
       <c r="B507" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C507" t="n">
         <v>1</v>
@@ -7031,7 +7031,7 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>t-666134929525178369</t>
+          <t>t-737979350088323072</t>
         </is>
       </c>
       <c r="B508" t="n">
@@ -7044,20 +7044,20 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>t-666141677652848640</t>
+          <t>t-1006483455209766912</t>
         </is>
       </c>
       <c r="B509" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C509" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>t-666146479564681217</t>
+          <t>t-1006781895278055424</t>
         </is>
       </c>
       <c r="B510" t="n">
@@ -7070,7 +7070,7 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>t-666155143696506880</t>
+          <t>t-1006804114234322945</t>
         </is>
       </c>
       <c r="B511" t="n">
@@ -7083,7 +7083,7 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>t-666158894691954689</t>
+          <t>t-958391208602193920</t>
         </is>
       </c>
       <c r="B512" t="n">
@@ -7096,37 +7096,37 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>t-666536410439028736</t>
+          <t>t-906057103172923392</t>
         </is>
       </c>
       <c r="B513" t="n">
         <v>1</v>
       </c>
       <c r="C513" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>t-666602420022194177</t>
+          <t>t-743445326611251200</t>
         </is>
       </c>
       <c r="B514" t="n">
         <v>1</v>
       </c>
       <c r="C514" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>t-666664955077242881</t>
+          <t>t-746386418465914880</t>
         </is>
       </c>
       <c r="B515" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C515" t="n">
         <v>1</v>
@@ -7135,7 +7135,7 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>t-667221889505296388</t>
+          <t>t-753159226390962176</t>
         </is>
       </c>
       <c r="B516" t="n">
@@ -7148,24 +7148,24 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>t-667625624421445632</t>
+          <t>t-766238666905747456</t>
         </is>
       </c>
       <c r="B517" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C517" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>t-667976594137350144</t>
+          <t>t-767290506456039424</t>
         </is>
       </c>
       <c r="B518" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C518" t="n">
         <v>1</v>
@@ -7174,37 +7174,37 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>t-668796235004932096</t>
+          <t>t-834086991646048256</t>
         </is>
       </c>
       <c r="B519" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C519" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>t-669882207800942593</t>
+          <t>t-834349788053266432</t>
         </is>
       </c>
       <c r="B520" t="n">
         <v>1</v>
       </c>
       <c r="C520" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>t-697436431816355840</t>
+          <t>t-834314501134614528</t>
         </is>
       </c>
       <c r="B521" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C521" t="n">
         <v>0</v>
@@ -7213,24 +7213,24 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>t-697627864380809216</t>
+          <t>t-991723021709832193</t>
         </is>
       </c>
       <c r="B522" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C522" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>t-698371050527023104</t>
+          <t>t-855547644516732928</t>
         </is>
       </c>
       <c r="B523" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C523" t="n">
         <v>1</v>
@@ -7239,59 +7239,59 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>t-698770244375093249</t>
+          <t>t-855563578274754560</t>
         </is>
       </c>
       <c r="B524" t="n">
         <v>1</v>
       </c>
       <c r="C524" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>t-736860584470159360</t>
+          <t>t-859444598309097473</t>
         </is>
       </c>
       <c r="B525" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C525" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>t-828910647861616640</t>
+          <t>t-859536182866317312</t>
         </is>
       </c>
       <c r="B526" t="n">
         <v>1</v>
       </c>
       <c r="C526" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>t-829261659726295045</t>
+          <t>t-946052034461040640</t>
         </is>
       </c>
       <c r="B527" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C527" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>t-865948979183222784</t>
+          <t>t-991783836206936065</t>
         </is>
       </c>
       <c r="B528" t="n">
@@ -7304,11 +7304,11 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>t-879622376966635521</t>
+          <t>t-1038090181595877376</t>
         </is>
       </c>
       <c r="B529" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C529" t="n">
         <v>0</v>
@@ -7317,11 +7317,11 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>t-879625739317854209</t>
+          <t>t-904852554470883329</t>
         </is>
       </c>
       <c r="B530" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C530" t="n">
         <v>1</v>
@@ -7330,24 +7330,24 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>t-879987948296568834</t>
+          <t>t-948508791448002560</t>
         </is>
       </c>
       <c r="B531" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C531" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>t-914672240901287936</t>
+          <t>t-1003312973887270917</t>
         </is>
       </c>
       <c r="B532" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C532" t="n">
         <v>1</v>
@@ -7356,11 +7356,11 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>t-921445800072298496</t>
+          <t>t-1003367321245798400</t>
         </is>
       </c>
       <c r="B533" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C533" t="n">
         <v>1</v>
@@ -7369,33 +7369,33 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>t-922085813818658816</t>
+          <t>t-1003369104735113216</t>
         </is>
       </c>
       <c r="B534" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C534" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>t-925890248541794304</t>
+          <t>t-1003387066909167617</t>
         </is>
       </c>
       <c r="B535" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C535" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>t-927545172220694528</t>
+          <t>t-1003393307597312000</t>
         </is>
       </c>
       <c r="B536" t="n">
@@ -7408,7 +7408,7 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>t-927729703523270657</t>
+          <t>t-1003471542783823872</t>
         </is>
       </c>
       <c r="B537" t="n">
@@ -7421,7 +7421,7 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>t-927758071429939200</t>
+          <t>t-1003531171559628800</t>
         </is>
       </c>
       <c r="B538" t="n">
@@ -7434,7 +7434,7 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>t-927766985911312384</t>
+          <t>t-1003538396285947905</t>
         </is>
       </c>
       <c r="B539" t="n">
@@ -7447,7 +7447,7 @@
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>t-928074662826745856</t>
+          <t>t-1003544511115603973</t>
         </is>
       </c>
       <c r="B540" t="n">
@@ -7460,7 +7460,7 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>t-928076971581378560</t>
+          <t>t-1003657726029975553</t>
         </is>
       </c>
       <c r="B541" t="n">
@@ -7473,24 +7473,24 @@
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>t-928123673919348741</t>
+          <t>t-1003966949058056192</t>
         </is>
       </c>
       <c r="B542" t="n">
         <v>1</v>
       </c>
       <c r="C542" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>t-928519035205095424</t>
+          <t>t-981841496902197248</t>
         </is>
       </c>
       <c r="B543" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C543" t="n">
         <v>1</v>
@@ -7499,50 +7499,50 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>t-928568681545728000</t>
+          <t>t-986982915262308353</t>
         </is>
       </c>
       <c r="B544" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C544" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>t-928619706227023872</t>
+          <t>t-1043100641466490881</t>
         </is>
       </c>
       <c r="B545" t="n">
         <v>1</v>
       </c>
       <c r="C545" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>t-928900021390577664</t>
+          <t>t-1043534562775781377</t>
         </is>
       </c>
       <c r="B546" t="n">
         <v>1</v>
       </c>
       <c r="C546" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>t-928909590627942400</t>
+          <t>t-495525926722367488</t>
         </is>
       </c>
       <c r="B547" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C547" t="n">
         <v>0</v>
@@ -7551,24 +7551,24 @@
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>t-928993443942105088</t>
+          <t>t-500549350234554368</t>
         </is>
       </c>
       <c r="B548" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C548" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>t-944057571853287424</t>
+          <t>t-510001639617351681</t>
         </is>
       </c>
       <c r="B549" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C549" t="n">
         <v>1</v>
@@ -7577,20 +7577,20 @@
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>t-947798399184785408</t>
+          <t>t-537546537975685120</t>
         </is>
       </c>
       <c r="B550" t="n">
         <v>1</v>
       </c>
       <c r="C550" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>t-947806740518641664</t>
+          <t>t-537578272348205056</t>
         </is>
       </c>
       <c r="B551" t="n">
@@ -7603,20 +7603,20 @@
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>t-947808691230822401</t>
+          <t>t-537578565139582976</t>
         </is>
       </c>
       <c r="B552" t="n">
         <v>1</v>
       </c>
       <c r="C552" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>t-947833275673747457</t>
+          <t>t-537896255347646465</t>
         </is>
       </c>
       <c r="B553" t="n">
@@ -7629,11 +7629,11 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>t-948185680043155456</t>
+          <t>t-549142719973445632</t>
         </is>
       </c>
       <c r="B554" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C554" t="n">
         <v>1</v>
@@ -7642,50 +7642,50 @@
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>t-948407157803728896</t>
+          <t>t-549750044099088384</t>
         </is>
       </c>
       <c r="B555" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C555" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>t-948721205443358720</t>
+          <t>t-549858427787153410</t>
         </is>
       </c>
       <c r="B556" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C556" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>t-948800260238815232</t>
+          <t>t-549861279825817601</t>
         </is>
       </c>
       <c r="B557" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C557" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>t-948884291743870976</t>
+          <t>t-556228745443282944</t>
         </is>
       </c>
       <c r="B558" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C558" t="n">
         <v>0</v>
@@ -7694,7 +7694,7 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>t-950179252325859328</t>
+          <t>t-645961089671405568</t>
         </is>
       </c>
       <c r="B559" t="n">
@@ -7707,24 +7707,24 @@
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>t-950592034162774021</t>
+          <t>t-666134929525178369</t>
         </is>
       </c>
       <c r="B560" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C560" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>t-950680110948007937</t>
+          <t>t-666141677652848640</t>
         </is>
       </c>
       <c r="B561" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C561" t="n">
         <v>1</v>
@@ -7733,20 +7733,20 @@
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>t-951371471217090560</t>
+          <t>t-666146479564681217</t>
         </is>
       </c>
       <c r="B562" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C562" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>t-952033538005716993</t>
+          <t>t-666155143696506880</t>
         </is>
       </c>
       <c r="B563" t="n">
@@ -7759,63 +7759,63 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>t-952059671258447872</t>
+          <t>t-666158894691954689</t>
         </is>
       </c>
       <c r="B564" t="n">
         <v>1</v>
       </c>
       <c r="C564" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>t-952061652182028289</t>
+          <t>t-666536410439028736</t>
         </is>
       </c>
       <c r="B565" t="n">
         <v>1</v>
       </c>
       <c r="C565" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>t-952118349386850304</t>
+          <t>t-666602420022194177</t>
         </is>
       </c>
       <c r="B566" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C566" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>t-953168990901284865</t>
+          <t>t-666664955077242881</t>
         </is>
       </c>
       <c r="B567" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C567" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>t-1031392016255647744</t>
+          <t>t-667221889505296388</t>
         </is>
       </c>
       <c r="B568" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C568" t="n">
         <v>1</v>
@@ -7824,59 +7824,59 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>t-509160710316650496</t>
+          <t>t-667625624421445632</t>
         </is>
       </c>
       <c r="B569" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C569" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>t-509293535221145601</t>
+          <t>t-667976594137350144</t>
         </is>
       </c>
       <c r="B570" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C570" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>t-732742567545077761</t>
+          <t>t-668796235004932096</t>
         </is>
       </c>
       <c r="B571" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C571" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>t-732880819631460356</t>
+          <t>t-669882207800942593</t>
         </is>
       </c>
       <c r="B572" t="n">
         <v>1</v>
       </c>
       <c r="C572" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>t-732926405818753025</t>
+          <t>t-676377478168862721</t>
         </is>
       </c>
       <c r="B573" t="n">
@@ -7889,37 +7889,37 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>t-733131015837745153</t>
+          <t>t-677293991713308673</t>
         </is>
       </c>
       <c r="B574" t="n">
         <v>1</v>
       </c>
       <c r="C574" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>t-733131209660735493</t>
+          <t>t-678077110070566912</t>
         </is>
       </c>
       <c r="B575" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C575" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>t-733188233803128832</t>
+          <t>t-730666173340209152</t>
         </is>
       </c>
       <c r="B576" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C576" t="n">
         <v>1</v>
@@ -7928,63 +7928,63 @@
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>t-733201290151514113</t>
+          <t>t-736860584470159360</t>
         </is>
       </c>
       <c r="B577" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C577" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>t-827493643661381632</t>
+          <t>t-796846317632790528</t>
         </is>
       </c>
       <c r="B578" t="n">
         <v>1</v>
       </c>
       <c r="C578" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>t-832449416082579456</t>
+          <t>t-798050241861840896</t>
         </is>
       </c>
       <c r="B579" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C579" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>t-1015491573092528128</t>
+          <t>t-798099061475684352</t>
         </is>
       </c>
       <c r="B580" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C580" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>t-503088287381082112</t>
+          <t>t-806863559212679168</t>
         </is>
       </c>
       <c r="B581" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C581" t="n">
         <v>1</v>
@@ -7993,33 +7993,33 @@
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>t-533912579676975104</t>
+          <t>t-814010823689408512</t>
         </is>
       </c>
       <c r="B582" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C582" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>t-546829406539243520</t>
+          <t>t-835120033412038656</t>
         </is>
       </c>
       <c r="B583" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C583" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>t-546846288554500096</t>
+          <t>t-875288006172831744</t>
         </is>
       </c>
       <c r="B584" t="n">
@@ -8032,20 +8032,20 @@
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>t-547603292180578305</t>
+          <t>t-879622376966635521</t>
         </is>
       </c>
       <c r="B585" t="n">
         <v>1</v>
       </c>
       <c r="C585" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>t-547621920103862272</t>
+          <t>t-879625739317854209</t>
         </is>
       </c>
       <c r="B586" t="n">
@@ -8058,11 +8058,11 @@
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>t-547636294059184128</t>
+          <t>t-879987948296568834</t>
         </is>
       </c>
       <c r="B587" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C587" t="n">
         <v>1</v>
@@ -8071,7 +8071,7 @@
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>t-547637054578769920</t>
+          <t>t-912643743894949888</t>
         </is>
       </c>
       <c r="B588" t="n">
@@ -8084,33 +8084,33 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>t-574404715376603136</t>
+          <t>t-927545172220694528</t>
         </is>
       </c>
       <c r="B589" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C589" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>t-585340196557692928</t>
+          <t>t-927729703523270657</t>
         </is>
       </c>
       <c r="B590" t="n">
         <v>1</v>
       </c>
       <c r="C590" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>t-605261202822807552</t>
+          <t>t-927758071429939200</t>
         </is>
       </c>
       <c r="B591" t="n">
@@ -8123,7 +8123,7 @@
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>t-605672293654654976</t>
+          <t>t-927766985911312384</t>
         </is>
       </c>
       <c r="B592" t="n">
@@ -8136,11 +8136,11 @@
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>t-645905787584274433</t>
+          <t>t-928074662826745856</t>
         </is>
       </c>
       <c r="B593" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C593" t="n">
         <v>1</v>
@@ -8149,46 +8149,46 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>t-645928760433246209</t>
+          <t>t-928076971581378560</t>
         </is>
       </c>
       <c r="B594" t="n">
         <v>1</v>
       </c>
       <c r="C594" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>t-645952188204761088</t>
+          <t>t-928123673919348741</t>
         </is>
       </c>
       <c r="B595" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C595" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>t-646249606892797957</t>
+          <t>t-928519035205095424</t>
         </is>
       </c>
       <c r="B596" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C596" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>t-662632429539057666</t>
+          <t>t-928568681545728000</t>
         </is>
       </c>
       <c r="B597" t="n">
@@ -8201,7 +8201,7 @@
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>t-662681193154920448</t>
+          <t>t-928619706227023872</t>
         </is>
       </c>
       <c r="B598" t="n">
@@ -8214,11 +8214,11 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>t-663567974029131776</t>
+          <t>t-928900021390577664</t>
         </is>
       </c>
       <c r="B599" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C599" t="n">
         <v>1</v>
@@ -8227,7 +8227,7 @@
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>t-732021013433724928</t>
+          <t>t-928909590627942400</t>
         </is>
       </c>
       <c r="B600" t="n">
@@ -8240,11 +8240,11 @@
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>t-732494989838540800</t>
+          <t>t-928993443942105088</t>
         </is>
       </c>
       <c r="B601" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C601" t="n">
         <v>1</v>
@@ -8253,7 +8253,7 @@
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>t-732496065941798912</t>
+          <t>t-940565575226372102</t>
         </is>
       </c>
       <c r="B602" t="n">
@@ -8266,24 +8266,24 @@
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>t-756020759726727169</t>
+          <t>t-940637216757477377</t>
         </is>
       </c>
       <c r="B603" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C603" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>t-784943243364487168</t>
+          <t>t-947798399184785408</t>
         </is>
       </c>
       <c r="B604" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C604" t="n">
         <v>1</v>
@@ -8292,7 +8292,7 @@
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>t-785071804276576256</t>
+          <t>t-947806740518641664</t>
         </is>
       </c>
       <c r="B605" t="n">
@@ -8305,20 +8305,20 @@
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>t-786121283209564160</t>
+          <t>t-947808691230822401</t>
         </is>
       </c>
       <c r="B606" t="n">
         <v>1</v>
       </c>
       <c r="C606" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>t-787201722892455936</t>
+          <t>t-947833275673747457</t>
         </is>
       </c>
       <c r="B607" t="n">
@@ -8331,7 +8331,7 @@
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>t-787228854490243072</t>
+          <t>t-948185680043155456</t>
         </is>
       </c>
       <c r="B608" t="n">
@@ -8344,11 +8344,11 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>t-794478910901624834</t>
+          <t>t-948407157803728896</t>
         </is>
       </c>
       <c r="B609" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C609" t="n">
         <v>1</v>
@@ -8357,7 +8357,7 @@
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>t-794502218061750272</t>
+          <t>t-948721205443358720</t>
         </is>
       </c>
       <c r="B610" t="n">
@@ -8370,7 +8370,7 @@
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>t-838333127739260928</t>
+          <t>t-948800260238815232</t>
         </is>
       </c>
       <c r="B611" t="n">
@@ -8383,24 +8383,24 @@
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>t-838721199874048000</t>
+          <t>t-948884291743870976</t>
         </is>
       </c>
       <c r="B612" t="n">
         <v>1</v>
       </c>
       <c r="C612" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>t-845583720950128640</t>
+          <t>t-950179252325859328</t>
         </is>
       </c>
       <c r="B613" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C613" t="n">
         <v>1</v>
@@ -8409,24 +8409,24 @@
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>t-857545859868708865</t>
+          <t>t-950592034162774021</t>
         </is>
       </c>
       <c r="B614" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C614" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>t-863988808966053888</t>
+          <t>t-950680110948007937</t>
         </is>
       </c>
       <c r="B615" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C615" t="n">
         <v>1</v>
@@ -8435,11 +8435,11 @@
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>t-880004628884013057</t>
+          <t>t-951371471217090560</t>
         </is>
       </c>
       <c r="B616" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C616" t="n">
         <v>1</v>
@@ -8448,7 +8448,7 @@
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>t-931079635575586816</t>
+          <t>t-952033538005716993</t>
         </is>
       </c>
       <c r="B617" t="n">
@@ -8461,7 +8461,7 @@
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>t-931432910795653120</t>
+          <t>t-952059671258447872</t>
         </is>
       </c>
       <c r="B618" t="n">
@@ -8474,33 +8474,33 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>t-932133115748696064</t>
+          <t>t-952061652182028289</t>
         </is>
       </c>
       <c r="B619" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C619" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>t-932454853443334144</t>
+          <t>t-952118349386850304</t>
         </is>
       </c>
       <c r="B620" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C620" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>t-987647411144220672</t>
+          <t>t-953168990901284865</t>
         </is>
       </c>
       <c r="B621" t="n">
@@ -8513,24 +8513,24 @@
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>t-578162074741661696</t>
+          <t>t-994075228354510848</t>
         </is>
       </c>
       <c r="B622" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C622" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>t-518708677113438208</t>
+          <t>t-509160710316650496</t>
         </is>
       </c>
       <c r="B623" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C623" t="n">
         <v>1</v>
@@ -8539,7 +8539,7 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>t-528210205746532352</t>
+          <t>t-509293535221145601</t>
         </is>
       </c>
       <c r="B624" t="n">
@@ -8552,7 +8552,7 @@
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>t-528777132097298433</t>
+          <t>t-632870673115774976</t>
         </is>
       </c>
       <c r="B625" t="n">
@@ -8565,33 +8565,33 @@
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>t-528826156708278272</t>
+          <t>t-706517570451427328</t>
         </is>
       </c>
       <c r="B626" t="n">
         <v>1</v>
       </c>
       <c r="C626" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>t-528877062564503552</t>
+          <t>t-832449416082579456</t>
         </is>
       </c>
       <c r="B627" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C627" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>t-529071458085900288</t>
+          <t>t-571610231173599232</t>
         </is>
       </c>
       <c r="B628" t="n">
@@ -8604,7 +8604,7 @@
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>t-529085805034094593</t>
+          <t>t-583500409458688000</t>
         </is>
       </c>
       <c r="B629" t="n">
@@ -8617,7 +8617,7 @@
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>t-529166911674671104</t>
+          <t>t-583500450495795200</t>
         </is>
       </c>
       <c r="B630" t="n">
@@ -8630,7 +8630,7 @@
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>t-529236028171620353</t>
+          <t>t-583501741481594881</t>
         </is>
       </c>
       <c r="B631" t="n">
@@ -8643,7 +8643,7 @@
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>t-529319778377166848</t>
+          <t>t-583504251168497664</t>
         </is>
       </c>
       <c r="B632" t="n">
@@ -8656,7 +8656,7 @@
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>t-530135697877766146</t>
+          <t>t-583504875067056129</t>
         </is>
       </c>
       <c r="B633" t="n">
@@ -8669,11 +8669,11 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>t-530218899833241600</t>
+          <t>t-584246834618474497</t>
         </is>
       </c>
       <c r="B634" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C634" t="n">
         <v>1</v>
@@ -8682,20 +8682,20 @@
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>t-592295516517502976</t>
+          <t>t-675871788564283392</t>
         </is>
       </c>
       <c r="B635" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C635" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>t-621352736672473089</t>
+          <t>t-727080149770866688</t>
         </is>
       </c>
       <c r="B636" t="n">
@@ -8708,20 +8708,20 @@
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>t-621526313216536576</t>
+          <t>t-756020759726727169</t>
         </is>
       </c>
       <c r="B637" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C637" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>t-621967424384925696</t>
+          <t>t-834984646416842753</t>
         </is>
       </c>
       <c r="B638" t="n">
@@ -8734,7 +8734,7 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>t-788398448508739585</t>
+          <t>t-834986851718946816</t>
         </is>
       </c>
       <c r="B639" t="n">
@@ -8747,7 +8747,7 @@
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>t-788457694453637120</t>
+          <t>t-835051963096121344</t>
         </is>
       </c>
       <c r="B640" t="n">
@@ -8760,7 +8760,7 @@
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>t-795674749028462592</t>
+          <t>t-857545859868708865</t>
         </is>
       </c>
       <c r="B641" t="n">
@@ -8773,11 +8773,11 @@
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>t-802829831633108992</t>
+          <t>t-870517868831449088</t>
         </is>
       </c>
       <c r="B642" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C642" t="n">
         <v>1</v>
@@ -8786,20 +8786,20 @@
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>t-551339874838908928</t>
+          <t>t-924905228415193088</t>
         </is>
       </c>
       <c r="B643" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C643" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>t-971295308981383168</t>
+          <t>t-960348165114273792</t>
         </is>
       </c>
       <c r="B644" t="n">
@@ -8812,11 +8812,11 @@
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>t-664089575191478272</t>
+          <t>t-976030387188137984</t>
         </is>
       </c>
       <c r="B645" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C645" t="n">
         <v>1</v>
@@ -8825,20 +8825,20 @@
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>t-744191847128436736</t>
+          <t>t-976030855033319425</t>
         </is>
       </c>
       <c r="B646" t="n">
         <v>1</v>
       </c>
       <c r="C646" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>t-799444908029284352</t>
+          <t>t-976037405776990208</t>
         </is>
       </c>
       <c r="B647" t="n">
@@ -8851,85 +8851,85 @@
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>t-799480577057583104</t>
+          <t>t-1061598368164528128</t>
         </is>
       </c>
       <c r="B648" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C648" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>t-836878014587744257</t>
+          <t>t-1061625768696930304</t>
         </is>
       </c>
       <c r="B649" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C649" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>t-534323907642142720</t>
+          <t>t-1061782167494320130</t>
         </is>
       </c>
       <c r="B650" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C650" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>t-545394272619331584</t>
+          <t>t-1062219458046058496</t>
         </is>
       </c>
       <c r="B651" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C651" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>t-694769781573050368</t>
+          <t>t-508042249457139712</t>
         </is>
       </c>
       <c r="B652" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C652" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>t-703773712068116482</t>
+          <t>t-563978477183840256</t>
         </is>
       </c>
       <c r="B653" t="n">
         <v>1</v>
       </c>
       <c r="C653" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>t-703855663269556224</t>
+          <t>t-756176490119647232</t>
         </is>
       </c>
       <c r="B654" t="n">
@@ -8942,7 +8942,7 @@
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>t-703940411761389571</t>
+          <t>t-839656521227091969</t>
         </is>
       </c>
       <c r="B655" t="n">
@@ -8955,7 +8955,7 @@
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>t-757365069608923136</t>
+          <t>t-961643380684959749</t>
         </is>
       </c>
       <c r="B656" t="n">
@@ -8968,37 +8968,37 @@
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>t-833843048253681665</t>
+          <t>t-550981789649735680</t>
         </is>
       </c>
       <c r="B657" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C657" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>t-834648744150892546</t>
+          <t>t-555289784240054272</t>
         </is>
       </c>
       <c r="B658" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C658" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>t-919103523458969600</t>
+          <t>t-555290912268750848</t>
         </is>
       </c>
       <c r="B659" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C659" t="n">
         <v>1</v>
@@ -9007,11 +9007,11 @@
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>t-922457591313137664</t>
+          <t>t-555447424768954368</t>
         </is>
       </c>
       <c r="B660" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C660" t="n">
         <v>1</v>
@@ -9020,7 +9020,7 @@
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>t-922793297873010689</t>
+          <t>t-678547534269177856</t>
         </is>
       </c>
       <c r="B661" t="n">
@@ -9033,11 +9033,11 @@
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>t-961453081543065600</t>
+          <t>t-712147646559879168</t>
         </is>
       </c>
       <c r="B662" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C662" t="n">
         <v>1</v>
@@ -9046,7 +9046,7 @@
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>t-557096941750743040</t>
+          <t>t-788398448508739585</t>
         </is>
       </c>
       <c r="B663" t="n">
@@ -9059,7 +9059,7 @@
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>t-681630649879543808</t>
+          <t>t-788457694453637120</t>
         </is>
       </c>
       <c r="B664" t="n">
@@ -9072,20 +9072,20 @@
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>t-734168300121395200</t>
+          <t>t-936830929384828928</t>
         </is>
       </c>
       <c r="B665" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C665" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>t-798752071239409665</t>
+          <t>t-936988511051292672</t>
         </is>
       </c>
       <c r="B666" t="n">
@@ -9098,20 +9098,20 @@
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>t-815040393884467200</t>
+          <t>t-902843730587115520</t>
         </is>
       </c>
       <c r="B667" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C667" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>t-928119470215847936</t>
+          <t>t-555323393890058240</t>
         </is>
       </c>
       <c r="B668" t="n">
@@ -9124,50 +9124,50 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>t-636337860757483520</t>
+          <t>t-555327376440053760</t>
         </is>
       </c>
       <c r="B669" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C669" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>t-695999176518184960</t>
+          <t>t-565428032685740033</t>
         </is>
       </c>
       <c r="B670" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C670" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>t-776553403992252416</t>
+          <t>t-744191847128436736</t>
         </is>
       </c>
       <c r="B671" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C671" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>t-776953291594866688</t>
+          <t>t-829520315575177217</t>
         </is>
       </c>
       <c r="B672" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C672" t="n">
         <v>1</v>
@@ -9176,11 +9176,11 @@
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>t-776996787567464448</t>
+          <t>t-830684745323327488</t>
         </is>
       </c>
       <c r="B673" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C673" t="n">
         <v>1</v>
@@ -9189,20 +9189,20 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>t-777018247778631680</t>
+          <t>t-983954928610697216</t>
         </is>
       </c>
       <c r="B674" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C674" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>t-777139839556648960</t>
+          <t>t-564676313139531776</t>
         </is>
       </c>
       <c r="B675" t="n">
@@ -9215,7 +9215,7 @@
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>t-777163982893223936</t>
+          <t>t-564736068306878464</t>
         </is>
       </c>
       <c r="B676" t="n">
@@ -9228,7 +9228,7 @@
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>t-779194196724887553</t>
+          <t>t-685036854010339328</t>
         </is>
       </c>
       <c r="B677" t="n">
@@ -9241,20 +9241,20 @@
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>t-544020486527528960</t>
+          <t>t-703773712068116482</t>
         </is>
       </c>
       <c r="B678" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C678" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>t-544801968703557632</t>
+          <t>t-703855663269556224</t>
         </is>
       </c>
       <c r="B679" t="n">
@@ -9267,7 +9267,7 @@
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>t-823731915236708352</t>
+          <t>t-703940411761389571</t>
         </is>
       </c>
       <c r="B680" t="n">
@@ -9280,7 +9280,7 @@
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>t-930542567199997958</t>
+          <t>t-919103523458969600</t>
         </is>
       </c>
       <c r="B681" t="n">
@@ -9293,7 +9293,7 @@
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>t-812248571802025984</t>
+          <t>t-544711019629907968</t>
         </is>
       </c>
       <c r="B682" t="n">
@@ -9306,20 +9306,20 @@
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>t-984973285124222976</t>
+          <t>t-544769671799394304</t>
         </is>
       </c>
       <c r="B683" t="n">
         <v>0</v>
       </c>
       <c r="C683" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>t-550867696435200000</t>
+          <t>t-544813894037147648</t>
         </is>
       </c>
       <c r="B684" t="n">
@@ -9332,7 +9332,7 @@
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>t-550870336418234368</t>
+          <t>t-545169541052243968</t>
         </is>
       </c>
       <c r="B685" t="n">
@@ -9345,20 +9345,20 @@
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>t-550963305326862336</t>
+          <t>t-550823263941574657</t>
         </is>
       </c>
       <c r="B686" t="n">
         <v>1</v>
       </c>
       <c r="C686" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>t-551099005388599297</t>
+          <t>t-668452855993511936</t>
         </is>
       </c>
       <c r="B687" t="n">
@@ -9371,11 +9371,11 @@
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>t-551184362054500352</t>
+          <t>t-798752071239409665</t>
         </is>
       </c>
       <c r="B688" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C688" t="n">
         <v>1</v>
@@ -9384,7 +9384,7 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>t-557074144505114625</t>
+          <t>t-803451448700780544</t>
         </is>
       </c>
       <c r="B689" t="n">
@@ -9397,7 +9397,7 @@
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>t-1037871134488707072</t>
+          <t>t-803454039333556224</t>
         </is>
       </c>
       <c r="B690" t="n">
@@ -9410,33 +9410,33 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>t-1037879643695529985</t>
+          <t>t-803455995494027264</t>
         </is>
       </c>
       <c r="B691" t="n">
         <v>1</v>
       </c>
       <c r="C691" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>t-1037893136482103296</t>
+          <t>t-803466221962215424</t>
         </is>
       </c>
       <c r="B692" t="n">
         <v>1</v>
       </c>
       <c r="C692" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>t-1037997508973060096</t>
+          <t>t-803470959600467968</t>
         </is>
       </c>
       <c r="B693" t="n">
@@ -9449,33 +9449,33 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>t-558523740888109056</t>
+          <t>t-636337860757483520</t>
         </is>
       </c>
       <c r="B694" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C694" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>t-658189046523412480</t>
+          <t>t-702026039967531008</t>
         </is>
       </c>
       <c r="B695" t="n">
         <v>0</v>
       </c>
       <c r="C695" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>t-808956641743732736</t>
+          <t>t-764336375894306816</t>
         </is>
       </c>
       <c r="B696" t="n">
@@ -9488,20 +9488,20 @@
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>t-809733108471889920</t>
+          <t>t-764417813717086208</t>
         </is>
       </c>
       <c r="B697" t="n">
         <v>1</v>
       </c>
       <c r="C697" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>t-935764445632061440</t>
+          <t>t-919895715089932288</t>
         </is>
       </c>
       <c r="B698" t="n">
@@ -9514,11 +9514,11 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>t-940363500475465728</t>
+          <t>t-966989390873378816</t>
         </is>
       </c>
       <c r="B699" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C699" t="n">
         <v>1</v>
@@ -9527,11 +9527,11 @@
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>t-936534965277294597</t>
+          <t>t-987943018454962177</t>
         </is>
       </c>
       <c r="B700" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C700" t="n">
         <v>0</v>
@@ -9540,7 +9540,7 @@
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>t-936606274795462656</t>
+          <t>t-567587172367077376</t>
         </is>
       </c>
       <c r="B701" t="n">
@@ -9553,11 +9553,11 @@
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>t-564347457773920257</t>
+          <t>t-692022677649797120</t>
         </is>
       </c>
       <c r="B702" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C702" t="n">
         <v>1</v>
@@ -9566,7 +9566,7 @@
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>t-701328466483027968</t>
+          <t>t-797685704197214209</t>
         </is>
       </c>
       <c r="B703" t="n">
@@ -9579,20 +9579,20 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>t-580384120221487104</t>
+          <t>t-797694645522137093</t>
         </is>
       </c>
       <c r="B704" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C704" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>t-638407777333850112</t>
+          <t>t-798670554630762496</t>
         </is>
       </c>
       <c r="B705" t="n">
@@ -9605,24 +9605,24 @@
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>t-729180420265279489</t>
+          <t>t-809685070428524546</t>
         </is>
       </c>
       <c r="B706" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C706" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>t-729281192772542465</t>
+          <t>t-960667988255850496</t>
         </is>
       </c>
       <c r="B707" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C707" t="n">
         <v>1</v>
@@ -9631,20 +9631,20 @@
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>t-741496457824374784</t>
+          <t>t-966644863226732544</t>
         </is>
       </c>
       <c r="B708" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C708" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>t-932461262268661760</t>
+          <t>t-966649635170238465</t>
         </is>
       </c>
       <c r="B709" t="n">
@@ -9657,7 +9657,7 @@
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>t-932590015711993858</t>
+          <t>t-599804476774436864</t>
         </is>
       </c>
       <c r="B710" t="n">
@@ -9670,11 +9670,11 @@
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>t-932596112241786880</t>
+          <t>t-832028212376985600</t>
         </is>
       </c>
       <c r="B711" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C711" t="n">
         <v>1</v>
@@ -9683,7 +9683,7 @@
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>t-932690981908074496</t>
+          <t>t-832064333504933888</t>
         </is>
       </c>
       <c r="B712" t="n">
@@ -9696,7 +9696,7 @@
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>t-932881287005835264</t>
+          <t>t-946271534502395905</t>
         </is>
       </c>
       <c r="B713" t="n">
@@ -9709,7 +9709,7 @@
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>t-950713527123066881</t>
+          <t>t-950566545595551745</t>
         </is>
       </c>
       <c r="B714" t="n">
@@ -9722,11 +9722,11 @@
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>t-566151747232489472</t>
+          <t>t-954254379967660032</t>
         </is>
       </c>
       <c r="B715" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C715" t="n">
         <v>1</v>
@@ -9735,20 +9735,20 @@
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>t-605944627380817920</t>
+          <t>t-564347457773920257</t>
         </is>
       </c>
       <c r="B716" t="n">
         <v>0</v>
       </c>
       <c r="C716" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>t-729241413867556864</t>
+          <t>t-701328466483027968</t>
         </is>
       </c>
       <c r="B717" t="n">
@@ -9761,11 +9761,11 @@
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>t-802066289527095297</t>
+          <t>t-580384120221487104</t>
         </is>
       </c>
       <c r="B718" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C718" t="n">
         <v>1</v>
@@ -9774,7 +9774,7 @@
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>t-802114052063252481</t>
+          <t>t-761430337377349632</t>
         </is>
       </c>
       <c r="B719" t="n">
@@ -9787,7 +9787,7 @@
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>t-819830340390830081</t>
+          <t>t-805321168580395008</t>
         </is>
       </c>
       <c r="B720" t="n">
@@ -9800,11 +9800,11 @@
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>t-997052112126136320</t>
+          <t>t-870645957704265729</t>
         </is>
       </c>
       <c r="B721" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C721" t="n">
         <v>1</v>
@@ -9813,11 +9813,11 @@
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>t-572370799971053568</t>
+          <t>t-870651401311014912</t>
         </is>
       </c>
       <c r="B722" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C722" t="n">
         <v>1</v>
@@ -9826,20 +9826,20 @@
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>t-935417453286326277</t>
+          <t>t-979975965760720898</t>
         </is>
       </c>
       <c r="B723" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C723" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>t-675601382867537920</t>
+          <t>t-998840776758120448</t>
         </is>
       </c>
       <c r="B724" t="n">
@@ -9852,7 +9852,7 @@
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>t-676436379425894400</t>
+          <t>t-729241413867556864</t>
         </is>
       </c>
       <c r="B725" t="n">
@@ -9865,20 +9865,20 @@
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>t-737450472194211841</t>
+          <t>t-1016913242839367680</t>
         </is>
       </c>
       <c r="B726" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C726" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>t-737498199435317252</t>
+          <t>t-683203716623646720</t>
         </is>
       </c>
       <c r="B727" t="n">
@@ -9891,11 +9891,11 @@
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>t-732116489394851840</t>
+          <t>t-796860246736052224</t>
         </is>
       </c>
       <c r="B728" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C728" t="n">
         <v>1</v>
@@ -9904,20 +9904,20 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>t-732306842290946048</t>
+          <t>t-702431733740920832</t>
         </is>
       </c>
       <c r="B729" t="n">
         <v>1</v>
       </c>
       <c r="C729" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>t-733197295139741697</t>
+          <t>t-702439207684464640</t>
         </is>
       </c>
       <c r="B730" t="n">
@@ -9930,7 +9930,7 @@
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>t-760724447745699841</t>
+          <t>t-833891988315336704</t>
         </is>
       </c>
       <c r="B731" t="n">
@@ -9943,7 +9943,7 @@
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>t-780951872647475200</t>
+          <t>t-833912149630078976</t>
         </is>
       </c>
       <c r="B732" t="n">
@@ -9956,7 +9956,7 @@
     <row r="733">
       <c r="A733" t="inlineStr">
         <is>
-          <t>t-816256005461987328</t>
+          <t>t-940573035752386560</t>
         </is>
       </c>
       <c r="B733" t="n">
